--- a/docs/report-generator/092825-api-calls.xlsx
+++ b/docs/report-generator/092825-api-calls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray.stamps/Documents/as-built-report/api-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray.stamps/Documents/as-built-report/ps-deploy-report/docs/report-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37E2CB-6A8B-2F48-B15B-8C8BEB5709D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A865F63-3219-F143-ACCF-41B82C83A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-78360" yWindow="-13220" windowWidth="26380" windowHeight="27760" xr2:uid="{5D9104DC-D0A5-A54E-927F-9586B89AC5B0}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="548">
   <si>
     <t>id</t>
   </si>
@@ -1691,6 +1691,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://10.143.11.204/api/v7/clusters/ </t>
+  </si>
+  <si>
+    <t>ADD CURL COMMANDS HERE</t>
+  </si>
+  <si>
+    <t>NOTES</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2446,12 +2452,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2633,13 +2652,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2666,12 +2679,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2716,7 +2725,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2744,19 +2753,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3094,13 +3122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33175DF-3FE3-4944-8504-CD08E73C66CD}">
-  <dimension ref="A2:E230"/>
+  <dimension ref="A2:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3108,11 +3136,10 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -3120,7 +3147,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>543</v>
       </c>
@@ -3128,773 +3155,914 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123" t="s">
+    <row r="5" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="115" t="s">
         <v>545</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="30" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="32" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="32" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>1</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="33" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="32" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="32" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="34" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="31" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="32" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="32" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="14" t="b">
+      <c r="C29" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
         <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="32" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="14" t="b">
+      <c r="C33" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="14" t="b">
+      <c r="C34" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="32" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>2</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="18" t="b">
+      <c r="C36" s="34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>3</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="31">
         <v>222.905</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="32">
         <v>94.072999999999993</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="32">
         <v>282.09500000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="32">
         <v>162.61000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="32">
         <v>119.485</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="32">
         <v>57.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="24">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="32">
         <v>391.048</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="32">
         <v>225.55199999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="24">
         <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="32">
         <v>165.03399999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>3</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="34">
         <v>57.68</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
         <v>4</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="12" t="b">
+      <c r="C48" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="32" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="32"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="32"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="32">
         <v>5696</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="24">
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="32"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="24">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="32" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>4</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="33">
         <v>5696</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
         <v>308</v>
       </c>
       <c r="B57" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="43" t="b">
+      <c r="C57" s="122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
         <v>308</v>
       </c>
       <c r="B58" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="48"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="123"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
         <v>308</v>
       </c>
       <c r="B59" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="48"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="123"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
         <v>308</v>
       </c>
       <c r="B60" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="48"/>
-    </row>
-    <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="123"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
         <v>308</v>
       </c>
       <c r="B61" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="52"/>
-    </row>
-    <row r="64" spans="1:3" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="124" t="s">
+      <c r="C61" s="124"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="120" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="88" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="30" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="120">
+      <c r="D65" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="E65" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="116">
         <v>5</v>
       </c>
       <c r="B66" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="125" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="35">
         <v>5</v>
       </c>
       <c r="B67" s="63" t="s">
         <v>497</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="32" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="35">
         <v>5</v>
       </c>
       <c r="B68" s="63" t="s">
         <v>498</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="32" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="35">
         <v>5</v>
       </c>
       <c r="B69" s="63" t="s">
         <v>499</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="32" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="35">
         <v>5</v>
       </c>
       <c r="B70" s="63" t="s">
         <v>500</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="32" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="35">
         <v>5</v>
       </c>
       <c r="B71" s="63" t="s">
         <v>502</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="32" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="35">
         <v>5</v>
       </c>
       <c r="B72" s="63" t="s">
         <v>504</v>
       </c>
-      <c r="C72" s="14" t="b">
+      <c r="C72" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="35">
         <v>5</v>
       </c>
       <c r="B73" s="63" t="s">
         <v>505</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="32">
         <v>9000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="35">
         <v>5</v>
       </c>
       <c r="B74" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="32">
         <v>65520</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="35">
         <v>5</v>
       </c>
       <c r="B75" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="32" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="121">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="117">
         <v>5</v>
       </c>
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="86" t="s">
         <v>509</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="34" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="112"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="88"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="108"/>
+      <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="112"/>
-      <c r="B78" s="89"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="108"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="125" t="s">
+    <row r="79" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="89"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B80" s="119" t="s">
+      <c r="B80" s="115" t="s">
         <v>534</v>
       </c>
       <c r="C80" s="22" t="s">
@@ -3903,32 +4071,40 @@
       <c r="D80" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="126" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="114">
+      <c r="F80" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="G80" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="110">
         <v>5</v>
       </c>
-      <c r="B81" s="108" t="s">
+      <c r="B81" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="118">
+      <c r="C81" s="114">
         <v>1</v>
       </c>
       <c r="D81" s="9">
         <v>2</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="125">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="115">
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="111">
         <v>5</v>
       </c>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="24" t="s">
@@ -3937,15 +4113,17 @@
       <c r="D82" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="32" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="115">
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="111">
         <v>5</v>
       </c>
-      <c r="B83" s="107" t="s">
+      <c r="B83" s="103" t="s">
         <v>512</v>
       </c>
       <c r="C83" s="24" t="s">
@@ -3954,15 +4132,17 @@
       <c r="D83" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="32" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="115">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="111">
         <v>5</v>
       </c>
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="103" t="s">
         <v>513</v>
       </c>
       <c r="C84" s="24" t="s">
@@ -3971,15 +4151,17 @@
       <c r="D84" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="32" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="115">
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="111">
         <v>5</v>
       </c>
-      <c r="B85" s="107" t="s">
+      <c r="B85" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="24" t="s">
@@ -3988,15 +4170,17 @@
       <c r="D85" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="32" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="115">
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="111">
         <v>5</v>
       </c>
-      <c r="B86" s="107" t="s">
+      <c r="B86" s="103" t="s">
         <v>80</v>
       </c>
       <c r="C86" s="24" t="s">
@@ -4005,15 +4189,17 @@
       <c r="D86" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="32" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="115">
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="111">
         <v>5</v>
       </c>
-      <c r="B87" s="107" t="s">
+      <c r="B87" s="103" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -4022,15 +4208,17 @@
       <c r="D87" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="32" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="115">
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="111">
         <v>5</v>
       </c>
-      <c r="B88" s="107" t="s">
+      <c r="B88" s="103" t="s">
         <v>515</v>
       </c>
       <c r="C88" s="24" t="s">
@@ -4039,15 +4227,17 @@
       <c r="D88" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="32" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="115">
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="111">
         <v>5</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="103" t="s">
         <v>516</v>
       </c>
       <c r="C89" s="24" t="s">
@@ -4056,15 +4246,17 @@
       <c r="D89" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="32" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="115">
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="111">
         <v>5</v>
       </c>
-      <c r="B90" s="107" t="s">
+      <c r="B90" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C90" s="24" t="s">
@@ -4073,15 +4265,17 @@
       <c r="D90" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="32" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="115">
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="111">
         <v>5</v>
       </c>
-      <c r="B91" s="107" t="s">
+      <c r="B91" s="103" t="s">
         <v>57</v>
       </c>
       <c r="C91" s="24" t="s">
@@ -4090,15 +4284,17 @@
       <c r="D91" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="32" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="115">
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="111">
         <v>5</v>
       </c>
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="103" t="s">
         <v>107</v>
       </c>
       <c r="C92" s="24" t="s">
@@ -4107,15 +4303,17 @@
       <c r="D92" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="32" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="115">
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="111">
         <v>5</v>
       </c>
-      <c r="B93" s="107" t="s">
+      <c r="B93" s="103" t="s">
         <v>517</v>
       </c>
       <c r="C93" s="24" t="s">
@@ -4124,15 +4322,17 @@
       <c r="D93" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="115">
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="111">
         <v>5</v>
       </c>
-      <c r="B94" s="107" t="s">
+      <c r="B94" s="103" t="s">
         <v>518</v>
       </c>
       <c r="C94" s="24" t="s">
@@ -4141,15 +4341,17 @@
       <c r="D94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="32" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="115">
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="111">
         <v>5</v>
       </c>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="103" t="s">
         <v>519</v>
       </c>
       <c r="C95" s="24" t="b">
@@ -4158,15 +4360,17 @@
       <c r="D95" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E95" s="14" t="b">
+      <c r="E95" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="115">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="111">
         <v>5</v>
       </c>
-      <c r="B96" s="107" t="s">
+      <c r="B96" s="103" t="s">
         <v>520</v>
       </c>
       <c r="C96" s="24" t="b">
@@ -4175,15 +4379,17 @@
       <c r="D96" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E96" s="14" t="b">
+      <c r="E96" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="115">
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="111">
         <v>5</v>
       </c>
-      <c r="B97" s="107" t="s">
+      <c r="B97" s="103" t="s">
         <v>521</v>
       </c>
       <c r="C97" s="24" t="b">
@@ -4192,15 +4398,17 @@
       <c r="D97" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E97" s="14" t="b">
+      <c r="E97" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="115">
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="111">
         <v>5</v>
       </c>
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="103" t="s">
         <v>522</v>
       </c>
       <c r="C98" s="24" t="b">
@@ -4209,15 +4417,17 @@
       <c r="D98" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E98" s="14" t="b">
+      <c r="E98" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="115">
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="111">
         <v>5</v>
       </c>
-      <c r="B99" s="107" t="s">
+      <c r="B99" s="103" t="s">
         <v>523</v>
       </c>
       <c r="C99" s="24" t="b">
@@ -4226,15 +4436,17 @@
       <c r="D99" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E99" s="14" t="b">
+      <c r="E99" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="115">
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="111">
         <v>5</v>
       </c>
-      <c r="B100" s="107" t="s">
+      <c r="B100" s="103" t="s">
         <v>524</v>
       </c>
       <c r="C100" s="24" t="b">
@@ -4243,15 +4455,17 @@
       <c r="D100" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E100" s="14" t="b">
+      <c r="E100" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="115">
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="111">
         <v>5</v>
       </c>
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="103" t="s">
         <v>525</v>
       </c>
       <c r="C101" s="24" t="s">
@@ -4260,15 +4474,17 @@
       <c r="D101" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="32" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="116">
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="112">
         <v>5</v>
       </c>
-      <c r="B102" s="117" t="s">
+      <c r="B102" s="113" t="s">
         <v>517</v>
       </c>
       <c r="C102" s="25" t="s">
@@ -4277,347 +4493,399 @@
       <c r="D102" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="34" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="105" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="123" t="s">
+    <row r="105" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="119" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B106" s="119" t="s">
+      <c r="B106" s="115" t="s">
         <v>534</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="30" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="114">
+      <c r="E106" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="F106" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="110">
         <v>5</v>
       </c>
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="118">
+      <c r="C107" s="114">
         <v>5</v>
       </c>
-      <c r="D107" s="86">
+      <c r="D107" s="125">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="115">
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="111">
         <v>5</v>
       </c>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="32" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="115">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="111">
         <v>5</v>
       </c>
-      <c r="B109" s="107" t="s">
+      <c r="B109" s="103" t="s">
         <v>512</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="32" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="115">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="111">
         <v>5</v>
       </c>
-      <c r="B110" s="107" t="s">
+      <c r="B110" s="103" t="s">
         <v>513</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="32" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="115">
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="111">
         <v>5</v>
       </c>
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="32" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="115">
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="111">
         <v>5</v>
       </c>
-      <c r="B112" s="107" t="s">
+      <c r="B112" s="103" t="s">
         <v>80</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="115">
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="111">
         <v>5</v>
       </c>
-      <c r="B113" s="107" t="s">
+      <c r="B113" s="103" t="s">
         <v>38</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="32" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="115">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="111">
         <v>5</v>
       </c>
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="103" t="s">
         <v>515</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="115">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="111">
         <v>5</v>
       </c>
-      <c r="B115" s="107" t="s">
+      <c r="B115" s="103" t="s">
         <v>516</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="32" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="115">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="111">
         <v>5</v>
       </c>
-      <c r="B116" s="107" t="s">
+      <c r="B116" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="32" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="115">
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="111">
         <v>5</v>
       </c>
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="103" t="s">
         <v>57</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="32" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="115">
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="111">
         <v>5</v>
       </c>
-      <c r="B118" s="107" t="s">
+      <c r="B118" s="103" t="s">
         <v>107</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="115">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="111">
         <v>5</v>
       </c>
-      <c r="B119" s="107" t="s">
+      <c r="B119" s="103" t="s">
         <v>517</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="115">
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="111">
         <v>5</v>
       </c>
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="103" t="s">
         <v>518</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="32" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="115">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="111">
         <v>5</v>
       </c>
-      <c r="B121" s="107" t="s">
+      <c r="B121" s="103" t="s">
         <v>519</v>
       </c>
       <c r="C121" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="D121" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="115">
+      <c r="D121" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="111">
         <v>5</v>
       </c>
-      <c r="B122" s="107" t="s">
+      <c r="B122" s="103" t="s">
         <v>520</v>
       </c>
       <c r="C122" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D122" s="14" t="b">
+      <c r="D122" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="115">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="111">
         <v>5</v>
       </c>
-      <c r="B123" s="107" t="s">
+      <c r="B123" s="103" t="s">
         <v>521</v>
       </c>
       <c r="C123" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D123" s="14" t="b">
+      <c r="D123" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="115">
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="111">
         <v>5</v>
       </c>
-      <c r="B124" s="107" t="s">
+      <c r="B124" s="103" t="s">
         <v>522</v>
       </c>
       <c r="C124" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D124" s="14" t="b">
+      <c r="D124" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="115">
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="111">
         <v>5</v>
       </c>
-      <c r="B125" s="107" t="s">
+      <c r="B125" s="103" t="s">
         <v>523</v>
       </c>
       <c r="C125" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="D125" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="115">
+      <c r="D125" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="111">
         <v>5</v>
       </c>
-      <c r="B126" s="107" t="s">
+      <c r="B126" s="103" t="s">
         <v>524</v>
       </c>
       <c r="C126" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D126" s="14" t="b">
+      <c r="D126" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="115">
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="111">
         <v>5</v>
       </c>
-      <c r="B127" s="107" t="s">
+      <c r="B127" s="103" t="s">
         <v>525</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="32" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="116">
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="112">
         <v>5</v>
       </c>
-      <c r="B128" s="117" t="s">
+      <c r="B128" s="113" t="s">
         <v>517</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="34" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="123" t="s">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="131" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="119" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>541</v>
       </c>
@@ -4630,12 +4898,18 @@
       <c r="D132" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E132" s="30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="78">
+      <c r="F132" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="G132" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="76">
         <v>6</v>
       </c>
       <c r="B133" s="10" t="s">
@@ -4647,12 +4921,14 @@
       <c r="D133" s="11">
         <v>3</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E133" s="31">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="79">
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="77">
         <v>6</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -4664,12 +4940,14 @@
       <c r="D134" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="79">
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="77">
         <v>6</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -4681,12 +4959,14 @@
       <c r="D135" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="32" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="79">
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="77">
         <v>6</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -4698,12 +4978,14 @@
       <c r="D136" s="7">
         <v>1</v>
       </c>
-      <c r="E136" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="79">
+      <c r="E136" s="32">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="77">
         <v>6</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -4715,12 +4997,14 @@
       <c r="D137" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="79">
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="77">
         <v>6</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -4732,12 +5016,14 @@
       <c r="D138" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" s="32" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="79">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="77">
         <v>6</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -4749,12 +5035,14 @@
       <c r="D139" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="32" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="79">
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="77">
         <v>6</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -4766,12 +5054,14 @@
       <c r="D140" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E140" s="32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="80">
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="78">
         <v>6</v>
       </c>
       <c r="B141" s="16" t="s">
@@ -4783,20 +5073,22 @@
       <c r="D141" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="34" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="123" t="s">
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="144" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="119" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B145" s="82" t="s">
+      <c r="B145" s="80" t="s">
         <v>400</v>
       </c>
       <c r="C145" s="19" t="s">
@@ -4805,12 +5097,18 @@
       <c r="D145" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E145" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="78">
+      <c r="F145" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="G145" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="76">
         <v>6</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -4822,12 +5120,14 @@
       <c r="D146" s="11">
         <v>2</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E146" s="31">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="79">
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="77">
         <v>6</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -4839,12 +5139,14 @@
       <c r="D147" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="32" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="79">
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="77">
         <v>6</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -4856,12 +5158,14 @@
       <c r="D148" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="32" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="79">
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="77">
         <v>6</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -4873,12 +5177,14 @@
       <c r="D149" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="32" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="79">
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="77">
         <v>6</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -4890,12 +5196,14 @@
       <c r="D150" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="79">
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="77">
         <v>6</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -4907,12 +5215,14 @@
       <c r="D151" s="7">
         <v>3</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="32">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="79">
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="77">
         <v>6</v>
       </c>
       <c r="B152" s="6" t="s">
@@ -4924,12 +5234,14 @@
       <c r="D152" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="79">
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="77">
         <v>6</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -4941,12 +5253,14 @@
       <c r="D153" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="32" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="79">
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="77">
         <v>6</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -4958,12 +5272,14 @@
       <c r="D154" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="32" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="79">
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="77">
         <v>6</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -4975,12 +5291,14 @@
       <c r="D155" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="79">
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="77">
         <v>6</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -4992,12 +5310,14 @@
       <c r="D156" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="E156" s="32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="79">
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="77">
         <v>6</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -5009,12 +5329,14 @@
       <c r="D157" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="79">
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="77">
         <v>6</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -5026,12 +5348,14 @@
       <c r="D158" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="79">
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="77">
         <v>6</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -5043,12 +5367,14 @@
       <c r="D159" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E159" s="14" t="b">
+      <c r="E159" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="79">
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="77">
         <v>6</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -5060,12 +5386,14 @@
       <c r="D160" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E160" s="14" t="b">
+      <c r="E160" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="79">
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="77">
         <v>6</v>
       </c>
       <c r="B161" s="6" t="s">
@@ -5077,12 +5405,14 @@
       <c r="D161" s="7">
         <v>69</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161" s="32">
         <v>69</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="79">
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="77">
         <v>6</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -5094,12 +5424,14 @@
       <c r="D162" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E162" s="14" t="s">
+      <c r="E162" s="32" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="79">
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="77">
         <v>6</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -5111,12 +5443,14 @@
       <c r="D163" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="32" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="79">
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="77">
         <v>6</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -5128,12 +5462,14 @@
       <c r="D164" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="32" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="79">
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="77">
         <v>6</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -5145,12 +5481,14 @@
       <c r="D165" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E165" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="79">
+      <c r="E165" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="77">
         <v>6</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -5162,12 +5500,14 @@
       <c r="D166" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="E166" s="32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="79">
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="77">
         <v>6</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -5179,12 +5519,14 @@
       <c r="D167" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="79">
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="77">
         <v>6</v>
       </c>
       <c r="B168" s="6" t="s">
@@ -5196,12 +5538,14 @@
       <c r="D168" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E168" s="32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="83" t="s">
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="81" t="s">
         <v>308</v>
       </c>
       <c r="B169" s="51" t="s">
@@ -5209,191 +5553,223 @@
       </c>
       <c r="C169" s="51"/>
       <c r="D169" s="51"/>
-      <c r="E169" s="84"/>
-    </row>
-    <row r="172" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="123" t="s">
+      <c r="E169" s="127"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="172" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="119" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B173" s="99" t="s">
+      <c r="B173" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="C173" s="100"/>
-      <c r="D173" s="21" t="s">
+      <c r="C173" s="96"/>
+      <c r="D173" s="30" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="118">
+      <c r="E173" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="F173" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="114">
         <v>7</v>
       </c>
-      <c r="B174" s="101" t="s">
+      <c r="B174" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="102"/>
-      <c r="D174" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C174" s="98"/>
+      <c r="D174" s="125">
+        <v>1</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="24">
         <v>7</v>
       </c>
-      <c r="B175" s="103" t="s">
+      <c r="B175" s="99" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="45"/>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="24">
         <v>7</v>
       </c>
-      <c r="B176" s="103" t="s">
+      <c r="B176" s="99" t="s">
         <v>170</v>
       </c>
       <c r="C176" s="45"/>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="32" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="24">
         <v>7</v>
       </c>
-      <c r="B177" s="103" t="s">
+      <c r="B177" s="99" t="s">
         <v>212</v>
       </c>
       <c r="C177" s="45"/>
-      <c r="D177" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" s="32">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="24">
         <v>7</v>
       </c>
-      <c r="B178" s="103" t="s">
+      <c r="B178" s="99" t="s">
         <v>179</v>
       </c>
       <c r="C178" s="45"/>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="24">
         <v>7</v>
       </c>
-      <c r="B179" s="103" t="s">
+      <c r="B179" s="99" t="s">
         <v>4</v>
       </c>
       <c r="C179" s="45"/>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="32" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="24">
         <v>7</v>
       </c>
-      <c r="B180" s="103" t="s">
+      <c r="B180" s="99" t="s">
         <v>225</v>
       </c>
       <c r="C180" s="45"/>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="32" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="24">
         <v>7</v>
       </c>
-      <c r="B181" s="103" t="s">
+      <c r="B181" s="99" t="s">
         <v>230</v>
       </c>
       <c r="C181" s="45"/>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="24">
         <v>7</v>
       </c>
-      <c r="B182" s="103" t="s">
+      <c r="B182" s="99" t="s">
         <v>96</v>
       </c>
       <c r="C182" s="45"/>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="24">
         <v>7</v>
       </c>
-      <c r="B183" s="103" t="s">
+      <c r="B183" s="99" t="s">
         <v>100</v>
       </c>
       <c r="C183" s="45"/>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25">
         <v>7</v>
       </c>
-      <c r="B184" s="104" t="s">
+      <c r="B184" s="100" t="s">
         <v>195</v>
       </c>
       <c r="C184" s="54"/>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="34" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="89"/>
-      <c r="B185" s="89"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="88"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="89"/>
-      <c r="B186" s="89"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="88"/>
-    </row>
-    <row r="187" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="123" t="s">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="119" t="s">
         <v>539</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B188" s="92" t="s">
+      <c r="B188" s="88" t="s">
         <v>206</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D188" s="21" t="s">
+      <c r="D188" s="30" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="118">
+      <c r="E188" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="F188" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="114">
         <v>7</v>
       </c>
       <c r="B189" s="8" t="s">
@@ -5402,11 +5778,13 @@
       <c r="C189" s="9">
         <v>2</v>
       </c>
-      <c r="D189" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D189" s="125">
+        <v>1</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="24">
         <v>7</v>
       </c>
@@ -5416,11 +5794,13 @@
       <c r="C190" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D190" s="32" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="24">
         <v>7</v>
       </c>
@@ -5430,11 +5810,13 @@
       <c r="C191" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="32" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="24">
         <v>7</v>
       </c>
@@ -5444,11 +5826,13 @@
       <c r="C192" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D192" s="32" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="24">
         <v>7</v>
       </c>
@@ -5458,11 +5842,13 @@
       <c r="C193" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D193" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="24">
         <v>7</v>
       </c>
@@ -5472,11 +5858,13 @@
       <c r="C194" s="7">
         <v>1</v>
       </c>
-      <c r="D194" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D194" s="32">
+        <v>1</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="24">
         <v>7</v>
       </c>
@@ -5486,11 +5874,13 @@
       <c r="C195" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D195" s="32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="24">
         <v>7</v>
       </c>
@@ -5500,11 +5890,13 @@
       <c r="C196" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="24">
         <v>7</v>
       </c>
@@ -5514,11 +5906,13 @@
       <c r="C197" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="32" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="24">
         <v>7</v>
       </c>
@@ -5528,11 +5922,13 @@
       <c r="C198" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="32" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="24">
         <v>7</v>
       </c>
@@ -5542,11 +5938,13 @@
       <c r="C199" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D199" s="32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="24">
         <v>7</v>
       </c>
@@ -5556,11 +5954,13 @@
       <c r="C200" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="24">
         <v>7</v>
       </c>
@@ -5570,11 +5970,13 @@
       <c r="C201" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D201" s="32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="24">
         <v>7</v>
       </c>
@@ -5584,11 +5986,13 @@
       <c r="C202" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="D202" s="32" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="24">
         <v>7</v>
       </c>
@@ -5598,11 +6002,13 @@
       <c r="C203" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D203" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D203" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="24">
         <v>7</v>
       </c>
@@ -5612,11 +6018,13 @@
       <c r="C204" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="24">
         <v>7</v>
       </c>
@@ -5626,11 +6034,13 @@
       <c r="C205" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D205" s="32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25">
         <v>7</v>
       </c>
@@ -5640,44 +6050,48 @@
       <c r="C206" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D206" s="18" t="s">
+      <c r="D206" s="34" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="89"/>
-      <c r="B207" s="89"/>
-      <c r="C207" s="88"/>
-      <c r="D207" s="88"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="89"/>
-      <c r="B208" s="89"/>
-      <c r="C208" s="88"/>
-      <c r="D208" s="88"/>
-    </row>
-    <row r="209" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="126" t="s">
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="121" t="s">
         <v>540</v>
       </c>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B210" s="82" t="s">
+      <c r="B210" s="80" t="s">
         <v>428</v>
       </c>
       <c r="C210" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D210" s="21" t="s">
+      <c r="D210" s="30" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="118">
+      <c r="E210" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="F210" s="129" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="114">
         <v>7</v>
       </c>
       <c r="B211" s="8" t="s">
@@ -5686,11 +6100,13 @@
       <c r="C211" s="37">
         <v>2</v>
       </c>
-      <c r="D211" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D211" s="125">
+        <v>1</v>
+      </c>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="24">
         <v>7</v>
       </c>
@@ -5700,11 +6116,13 @@
       <c r="C212" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="32" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="24">
         <v>7</v>
       </c>
@@ -5714,11 +6132,13 @@
       <c r="C213" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D213" s="32" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="24">
         <v>7</v>
       </c>
@@ -5728,11 +6148,13 @@
       <c r="C214" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D214" s="32" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="24">
         <v>7</v>
       </c>
@@ -5742,11 +6164,13 @@
       <c r="C215" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D215" s="32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="24">
         <v>7</v>
       </c>
@@ -5756,11 +6180,13 @@
       <c r="C216" s="35">
         <v>1</v>
       </c>
-      <c r="D216" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D216" s="32">
+        <v>1</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="24">
         <v>7</v>
       </c>
@@ -5770,11 +6196,13 @@
       <c r="C217" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D217" s="32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="24">
         <v>7</v>
       </c>
@@ -5784,11 +6212,13 @@
       <c r="C218" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="24">
         <v>7</v>
       </c>
@@ -5798,11 +6228,13 @@
       <c r="C219" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D219" s="32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="24">
         <v>7</v>
       </c>
@@ -5812,11 +6244,13 @@
       <c r="C220" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D220" s="32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="24">
         <v>7</v>
       </c>
@@ -5826,11 +6260,13 @@
       <c r="C221" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D221" s="32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="24">
         <v>7</v>
       </c>
@@ -5840,11 +6276,13 @@
       <c r="C222" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D222" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="24">
         <v>7</v>
       </c>
@@ -5854,11 +6292,13 @@
       <c r="C223" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="32" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="24">
         <v>7</v>
       </c>
@@ -5868,11 +6308,13 @@
       <c r="C224" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D224" s="32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="24">
         <v>7</v>
       </c>
@@ -5882,11 +6324,13 @@
       <c r="C225" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D225" s="32" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="24">
         <v>7</v>
       </c>
@@ -5896,11 +6340,13 @@
       <c r="C226" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="D226" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="24">
         <v>7</v>
       </c>
@@ -5910,11 +6356,13 @@
       <c r="C227" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D227" s="32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="24">
         <v>7</v>
       </c>
@@ -5924,37 +6372,43 @@
       <c r="C228" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D228" s="32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="25">
         <v>7</v>
       </c>
       <c r="B229" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C229" s="94" t="s">
+      <c r="C229" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="D229" s="28" t="s">
+      <c r="D229" s="33" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="83" t="s">
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B230" s="96" t="s">
+      <c r="B230" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="C230" s="97" t="s">
+      <c r="C230" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="D230" s="98" t="s">
+      <c r="D230" s="128" t="s">
         <v>216</v>
       </c>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6961,7 +7415,7 @@
       <c r="A1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>305</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -6970,7 +7424,7 @@
       <c r="D1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="79" t="s">
         <v>305</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -6990,7 +7444,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="76">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -6999,11 +7453,11 @@
       <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="84">
         <v>1</v>
       </c>
       <c r="K2" t="s">
@@ -7017,7 +7471,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="77">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -7044,7 +7498,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="77">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -7071,7 +7525,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="77">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7098,7 +7552,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="77">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7125,7 +7579,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="77">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -7152,7 +7606,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="77">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -7179,7 +7633,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -7206,7 +7660,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="78">
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -7303,19 +7757,19 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>400</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="80" t="s">
         <v>428</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -7332,7 +7786,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="76">
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -7341,11 +7795,11 @@
       <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="84">
         <v>1</v>
       </c>
       <c r="K17" t="s">
@@ -7359,7 +7813,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="79">
+      <c r="B18" s="77">
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -7386,7 +7840,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="79">
+      <c r="B19" s="77">
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7413,7 +7867,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="79">
+      <c r="B20" s="77">
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -7440,7 +7894,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="77">
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -7467,7 +7921,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="77">
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7494,7 +7948,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="77">
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -7521,7 +7975,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="77">
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -7548,7 +8002,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="77">
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -7575,7 +8029,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="77">
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -7602,7 +8056,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="77">
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -7624,7 +8078,7 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="79">
+      <c r="B28" s="77">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -7642,7 +8096,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="79">
+      <c r="B29" s="77">
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -7660,7 +8114,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="79">
+      <c r="B30" s="77">
         <v>2</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -7678,7 +8132,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="79">
+      <c r="B31" s="77">
         <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -7696,7 +8150,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="79">
+      <c r="B32" s="77">
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -7714,7 +8168,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="79">
+      <c r="B33" s="77">
         <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -7732,7 +8186,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="79">
+      <c r="B34" s="77">
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -7750,7 +8204,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="79">
+      <c r="B35" s="77">
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -7768,7 +8222,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="79">
+      <c r="B36" s="77">
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -7786,7 +8240,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="79">
+      <c r="B37" s="77">
         <v>2</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -7804,7 +8258,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="79">
+      <c r="B38" s="77">
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -7815,7 +8269,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="79">
+      <c r="B39" s="77">
         <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -7826,7 +8280,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="81" t="s">
         <v>308</v>
       </c>
       <c r="C40" s="51" t="s">
@@ -7870,7 +8324,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -7885,11 +8339,11 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="84">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -8142,7 +8596,6 @@
     </row>
     <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="E15" s="89"/>
       <c r="J15" t="s">
         <v>398</v>
       </c>
@@ -8157,10 +8610,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="80" t="s">
         <v>428</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -8169,8 +8622,8 @@
       <c r="D16" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="87" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="85" t="s">
         <v>206</v>
       </c>
       <c r="G16" s="19" t="s">
@@ -8179,7 +8632,7 @@
       <c r="H16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="87"/>
       <c r="J16" t="s">
         <v>398</v>
       </c>
@@ -8194,27 +8647,26 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="84">
         <v>1</v>
       </c>
       <c r="D17" s="37">
         <v>2</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="85" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="83" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="9">
         <v>2</v>
       </c>
-      <c r="H17" s="86">
-        <v>1</v>
-      </c>
-      <c r="I17" s="88"/>
+      <c r="H17" s="84">
+        <v>1</v>
+      </c>
       <c r="J17" t="s">
         <v>398</v>
       </c>
@@ -8239,7 +8691,7 @@
       <c r="D18" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="E18" s="88"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="13" t="s">
         <v>6</v>
       </c>
@@ -8249,7 +8701,6 @@
       <c r="H18" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="I18" s="88"/>
       <c r="K18" t="s">
         <v>182</v>
       </c>
@@ -8271,7 +8722,7 @@
       <c r="D19" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="E19" s="88"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="13" t="s">
         <v>170</v>
       </c>
@@ -8281,7 +8732,6 @@
       <c r="H19" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="88"/>
       <c r="J19" t="s">
         <v>399</v>
       </c>
@@ -8306,7 +8756,7 @@
       <c r="D20" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="E20" s="88"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="13" t="s">
         <v>4</v>
       </c>
@@ -8316,7 +8766,6 @@
       <c r="H20" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="88"/>
       <c r="J20" t="s">
         <v>399</v>
       </c>
@@ -8341,7 +8790,7 @@
       <c r="D21" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="88"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="13" t="s">
         <v>179</v>
       </c>
@@ -8351,7 +8800,6 @@
       <c r="H21" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I21" s="88"/>
       <c r="J21" t="s">
         <v>399</v>
       </c>
@@ -8376,7 +8824,7 @@
       <c r="D22" s="35">
         <v>1</v>
       </c>
-      <c r="E22" s="88"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="13" t="s">
         <v>192</v>
       </c>
@@ -8386,7 +8834,6 @@
       <c r="H22" s="14">
         <v>1</v>
       </c>
-      <c r="I22" s="88"/>
       <c r="J22" t="s">
         <v>398</v>
       </c>
@@ -8411,7 +8858,7 @@
       <c r="D23" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="13" t="s">
         <v>172</v>
       </c>
@@ -8421,7 +8868,6 @@
       <c r="H23" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="88"/>
       <c r="K23" t="s">
         <v>105</v>
       </c>
@@ -8443,7 +8889,7 @@
       <c r="D24" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="88"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="13" t="s">
         <v>107</v>
       </c>
@@ -8453,7 +8899,6 @@
       <c r="H24" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="88"/>
       <c r="K24" t="s">
         <v>192</v>
       </c>
@@ -8475,7 +8920,7 @@
       <c r="D25" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="13" t="s">
         <v>182</v>
       </c>
@@ -8485,7 +8930,6 @@
       <c r="H25" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="88"/>
       <c r="K25" t="s">
         <v>193</v>
       </c>
@@ -8507,7 +8951,7 @@
       <c r="D26" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="E26" s="88"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="13" t="s">
         <v>195</v>
       </c>
@@ -8517,7 +8961,6 @@
       <c r="H26" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="88"/>
       <c r="K26" t="s">
         <v>195</v>
       </c>
@@ -8539,7 +8982,7 @@
       <c r="D27" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="13" t="s">
         <v>96</v>
       </c>
@@ -8549,7 +8992,6 @@
       <c r="H27" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="88"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
@@ -8562,7 +9004,7 @@
       <c r="D28" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="88"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="13" t="s">
         <v>100</v>
       </c>
@@ -8572,7 +9014,6 @@
       <c r="H28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
@@ -8585,7 +9026,7 @@
       <c r="D29" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="E29" s="88"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="13" t="s">
         <v>189</v>
       </c>
@@ -8595,7 +9036,6 @@
       <c r="H29" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
@@ -8608,7 +9048,7 @@
       <c r="D30" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="13" t="s">
         <v>175</v>
       </c>
@@ -8618,7 +9058,6 @@
       <c r="H30" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
@@ -8631,7 +9070,7 @@
       <c r="D31" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="13" t="s">
         <v>99</v>
       </c>
@@ -8641,7 +9080,6 @@
       <c r="H31" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
@@ -8654,7 +9092,7 @@
       <c r="D32" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="13" t="s">
         <v>148</v>
       </c>
@@ -8664,9 +9102,8 @@
       <c r="H32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="6" t="s">
         <v>148</v>
@@ -8677,7 +9114,7 @@
       <c r="D33" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="13" t="s">
         <v>150</v>
       </c>
@@ -8687,9 +9124,8 @@
       <c r="H33" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="88"/>
-    </row>
-    <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="6" t="s">
         <v>150</v>
@@ -8700,7 +9136,7 @@
       <c r="D34" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="88"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="15" t="s">
         <v>152</v>
       </c>
@@ -8710,9 +9146,8 @@
       <c r="H34" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I34" s="88"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="6" t="s">
         <v>152</v>
@@ -8723,9 +9158,9 @@
       <c r="D35" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="88"/>
-    </row>
-    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="16" t="s">
         <v>364</v>
@@ -8736,53 +9171,53 @@
       <c r="D36" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="E36" s="88"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48"/>
     </row>
@@ -8844,10 +9279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="80" t="s">
         <v>428</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -8856,7 +9291,7 @@
       <c r="D1" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="79" t="s">
         <v>305</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8870,14 +9305,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86">
-        <v>1</v>
-      </c>
-      <c r="D2" s="86">
+      <c r="C2" s="84">
+        <v>1</v>
+      </c>
+      <c r="D2" s="84">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -9598,7 +10033,7 @@
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="76"/>
+    <col min="7" max="7" width="10.83203125" style="75"/>
     <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47.33203125" bestFit="1" customWidth="1"/>
@@ -9656,7 +10091,7 @@
       <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H2" t="s">
@@ -9691,7 +10126,7 @@
       <c r="F3" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H3" t="s">
@@ -9726,7 +10161,7 @@
       <c r="F4" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H4" t="s">
@@ -9761,7 +10196,7 @@
       <c r="F5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H5" t="s">
@@ -9796,7 +10231,7 @@
       <c r="F6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H6" t="s">
@@ -9831,7 +10266,7 @@
       <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H7" t="s">
@@ -9866,7 +10301,7 @@
       <c r="F8" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H8" t="s">
@@ -9901,7 +10336,7 @@
       <c r="F9" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H9" t="s">
@@ -9936,7 +10371,7 @@
       <c r="F10" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H10" t="s">
@@ -9971,7 +10406,7 @@
       <c r="F11" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H11" t="s">
@@ -10006,7 +10441,7 @@
       <c r="F12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H12" t="s">
@@ -10041,7 +10476,7 @@
       <c r="F13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H13" t="s">
@@ -10076,7 +10511,7 @@
       <c r="F14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H14" t="s">
@@ -10111,7 +10546,7 @@
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H15" t="s">
@@ -10146,7 +10581,7 @@
       <c r="F16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H16" t="s">
@@ -10181,7 +10616,7 @@
       <c r="F17" s="3">
         <v>69</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H17" t="s">
@@ -10216,7 +10651,7 @@
       <c r="F18" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H18" t="s">
@@ -10251,7 +10686,7 @@
       <c r="F19" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H19" t="s">
@@ -10286,7 +10721,7 @@
       <c r="F20" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H20" t="s">
@@ -10321,7 +10756,7 @@
       <c r="F21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H21" t="s">
@@ -10356,7 +10791,7 @@
       <c r="F22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H22" t="s">
@@ -10391,7 +10826,7 @@
       <c r="F23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H23" t="s">
@@ -10426,7 +10861,7 @@
       <c r="F24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H24" t="s">
@@ -10452,7 +10887,7 @@
       <c r="C25" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="76" t="s">
+      <c r="G25" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H25" t="s">
@@ -10478,7 +10913,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H26" t="s">
@@ -10501,7 +10936,7 @@
       <c r="B27" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H27" t="s">
@@ -10527,7 +10962,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="76" t="s">
+      <c r="G28" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H28" t="s">
@@ -10550,7 +10985,7 @@
       <c r="B29" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="G29" s="76" t="s">
+      <c r="G29" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H29" t="s">
@@ -10573,7 +11008,7 @@
       <c r="B30" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="G30" s="76" t="s">
+      <c r="G30" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H30" t="s">
@@ -10596,7 +11031,7 @@
       <c r="B31" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="G31" s="76" t="s">
+      <c r="G31" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H31" t="s">
@@ -10619,7 +11054,7 @@
       <c r="B32" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="G32" s="76" t="s">
+      <c r="G32" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H32" t="s">
@@ -10642,7 +11077,7 @@
       <c r="B33" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="76" t="s">
+      <c r="G33" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H33" t="s">
@@ -10665,7 +11100,7 @@
       <c r="B34" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="G34" s="76" t="s">
+      <c r="G34" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H34" t="s">
@@ -10688,7 +11123,7 @@
       <c r="B35" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H35" t="s">
@@ -10711,7 +11146,7 @@
       <c r="B36" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G36" s="76" t="s">
+      <c r="G36" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H36" t="s">
@@ -10734,7 +11169,7 @@
       <c r="B37" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="G37" s="76" t="s">
+      <c r="G37" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H37" t="s">
@@ -10757,7 +11192,7 @@
       <c r="B38" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="G38" s="76" t="s">
+      <c r="G38" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H38" t="s">
@@ -10780,7 +11215,7 @@
       <c r="B39" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="76" t="s">
+      <c r="G39" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H39" t="s">
@@ -10803,7 +11238,7 @@
       <c r="B40" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="G40" s="76" t="s">
+      <c r="G40" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H40" t="s">
@@ -10826,7 +11261,7 @@
       <c r="B41" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G41" s="76" t="s">
+      <c r="G41" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H41" t="s">
@@ -10849,7 +11284,7 @@
       <c r="B42" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H42" t="s">
@@ -10872,7 +11307,7 @@
       <c r="B43" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="G43" s="76" t="s">
+      <c r="G43" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H43" t="s">
@@ -10895,7 +11330,7 @@
       <c r="B44" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="G44" s="76" t="s">
+      <c r="G44" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H44" t="s">
@@ -10918,7 +11353,7 @@
       <c r="B45" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="76" t="s">
+      <c r="G45" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H45" t="s">
@@ -10941,7 +11376,7 @@
       <c r="B46" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="G46" s="76" t="s">
+      <c r="G46" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H46" t="s">
@@ -10964,7 +11399,7 @@
       <c r="B47" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="G47" s="76" t="s">
+      <c r="G47" s="75" t="s">
         <v>398</v>
       </c>
       <c r="H47" t="s">
@@ -10987,7 +11422,7 @@
       <c r="B48" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="G48" s="76" t="s">
+      <c r="G48" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H48" t="s">
@@ -11010,7 +11445,7 @@
       <c r="B49" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="G49" s="76" t="s">
+      <c r="G49" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H49" t="s">
@@ -11033,7 +11468,7 @@
       <c r="B50" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="G50" s="76" t="s">
+      <c r="G50" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H50" t="s">
@@ -11056,7 +11491,7 @@
       <c r="B51" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="G51" s="76" t="s">
+      <c r="G51" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H51" t="s">
@@ -11079,7 +11514,7 @@
       <c r="B52" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="G52" s="76" t="s">
+      <c r="G52" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H52" t="s">
@@ -11102,7 +11537,7 @@
       <c r="B53" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="G53" s="76" t="s">
+      <c r="G53" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H53" t="s">
@@ -11125,7 +11560,7 @@
       <c r="B54" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="G54" s="76" t="s">
+      <c r="G54" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H54" t="s">
@@ -11148,7 +11583,7 @@
       <c r="B55" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="G55" s="76" t="s">
+      <c r="G55" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H55" t="s">
@@ -11171,7 +11606,7 @@
       <c r="B56" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="G56" s="76" t="s">
+      <c r="G56" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H56" t="s">
@@ -11188,7 +11623,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G57" s="76" t="s">
+      <c r="G57" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H57" t="s">
@@ -11205,7 +11640,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G58" s="76" t="s">
+      <c r="G58" s="75" t="s">
         <v>399</v>
       </c>
       <c r="H58" t="s">
@@ -13157,10 +13592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="88" t="s">
         <v>304</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -13168,16 +13603,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="84" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="63" t="s">
         <v>497</v>
       </c>
@@ -13186,7 +13621,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="63" t="s">
         <v>498</v>
       </c>
@@ -13195,7 +13630,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="63" t="s">
         <v>499</v>
       </c>
@@ -13204,7 +13639,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="63" t="s">
         <v>500</v>
       </c>
@@ -13213,7 +13648,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="63" t="s">
         <v>502</v>
       </c>
@@ -13222,7 +13657,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="63" t="s">
         <v>504</v>
       </c>
@@ -13231,7 +13666,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="63" t="s">
         <v>505</v>
       </c>
@@ -13240,7 +13675,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="63" t="s">
         <v>506</v>
       </c>
@@ -13249,7 +13684,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="63" t="s">
         <v>507</v>
       </c>
@@ -13258,8 +13693,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="86" t="s">
         <v>509</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -13267,26 +13702,23 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="88"/>
+      <c r="A13" s="108"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="112"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="108"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="108"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="115" t="s">
         <v>534</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -13300,23 +13732,23 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="108" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="114">
         <v>1</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="84">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="115"/>
-      <c r="B18" s="107" t="s">
+      <c r="A18" s="111"/>
+      <c r="B18" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -13330,8 +13762,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
-      <c r="B19" s="107" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="103" t="s">
         <v>512</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -13345,8 +13777,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="103" t="s">
         <v>513</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -13360,8 +13792,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="115"/>
-      <c r="B21" s="107" t="s">
+      <c r="A21" s="111"/>
+      <c r="B21" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -13375,8 +13807,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="115"/>
-      <c r="B22" s="107" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="103" t="s">
         <v>80</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -13390,8 +13822,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="115"/>
-      <c r="B23" s="107" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="103" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -13405,8 +13837,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="115"/>
-      <c r="B24" s="107" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="103" t="s">
         <v>515</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -13420,8 +13852,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="115"/>
-      <c r="B25" s="107" t="s">
+      <c r="A25" s="111"/>
+      <c r="B25" s="103" t="s">
         <v>516</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -13435,8 +13867,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="115"/>
-      <c r="B26" s="107" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -13450,8 +13882,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="115"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="111"/>
+      <c r="B27" s="103" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -13465,8 +13897,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="115"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="103" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -13480,8 +13912,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="115"/>
-      <c r="B29" s="107" t="s">
+      <c r="A29" s="111"/>
+      <c r="B29" s="103" t="s">
         <v>517</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -13495,8 +13927,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="115"/>
-      <c r="B30" s="107" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="103" t="s">
         <v>518</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -13510,8 +13942,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="115"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="103" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="24" t="b">
@@ -13525,8 +13957,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="115"/>
-      <c r="B32" s="107" t="s">
+      <c r="A32" s="111"/>
+      <c r="B32" s="103" t="s">
         <v>520</v>
       </c>
       <c r="C32" s="24" t="b">
@@ -13540,8 +13972,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="115"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="103" t="s">
         <v>521</v>
       </c>
       <c r="C33" s="24" t="b">
@@ -13555,8 +13987,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="115"/>
-      <c r="B34" s="107" t="s">
+      <c r="A34" s="111"/>
+      <c r="B34" s="103" t="s">
         <v>522</v>
       </c>
       <c r="C34" s="24" t="b">
@@ -13570,8 +14002,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="115"/>
-      <c r="B35" s="107" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="103" t="s">
         <v>523</v>
       </c>
       <c r="C35" s="24" t="b">
@@ -13585,8 +14017,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="115"/>
-      <c r="B36" s="107" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="103" t="s">
         <v>524</v>
       </c>
       <c r="C36" s="24" t="b">
@@ -13600,8 +14032,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="115"/>
-      <c r="B37" s="107" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="103" t="s">
         <v>525</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -13615,8 +14047,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117" t="s">
+      <c r="A38" s="112"/>
+      <c r="B38" s="113" t="s">
         <v>517</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -13638,7 +14070,7 @@
       <c r="A42" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="115" t="s">
         <v>534</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -13649,20 +14081,20 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
-      <c r="B43" s="108" t="s">
+      <c r="A43" s="110"/>
+      <c r="B43" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="114">
         <v>5</v>
       </c>
-      <c r="D43" s="86">
+      <c r="D43" s="84">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="115"/>
-      <c r="B44" s="107" t="s">
+      <c r="A44" s="111"/>
+      <c r="B44" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -13673,8 +14105,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="115"/>
-      <c r="B45" s="107" t="s">
+      <c r="A45" s="111"/>
+      <c r="B45" s="103" t="s">
         <v>512</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -13685,8 +14117,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="115"/>
-      <c r="B46" s="107" t="s">
+      <c r="A46" s="111"/>
+      <c r="B46" s="103" t="s">
         <v>513</v>
       </c>
       <c r="C46" s="24" t="s">
@@ -13697,8 +14129,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="115"/>
-      <c r="B47" s="107" t="s">
+      <c r="A47" s="111"/>
+      <c r="B47" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -13709,8 +14141,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="115"/>
-      <c r="B48" s="107" t="s">
+      <c r="A48" s="111"/>
+      <c r="B48" s="103" t="s">
         <v>80</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -13721,8 +14153,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="115"/>
-      <c r="B49" s="107" t="s">
+      <c r="A49" s="111"/>
+      <c r="B49" s="103" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -13733,8 +14165,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="115"/>
-      <c r="B50" s="107" t="s">
+      <c r="A50" s="111"/>
+      <c r="B50" s="103" t="s">
         <v>515</v>
       </c>
       <c r="C50" s="24" t="s">
@@ -13745,8 +14177,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="115"/>
-      <c r="B51" s="107" t="s">
+      <c r="A51" s="111"/>
+      <c r="B51" s="103" t="s">
         <v>516</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -13757,8 +14189,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="115"/>
-      <c r="B52" s="107" t="s">
+      <c r="A52" s="111"/>
+      <c r="B52" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="24" t="s">
@@ -13769,8 +14201,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="115"/>
-      <c r="B53" s="107" t="s">
+      <c r="A53" s="111"/>
+      <c r="B53" s="103" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -13781,8 +14213,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="115"/>
-      <c r="B54" s="107" t="s">
+      <c r="A54" s="111"/>
+      <c r="B54" s="103" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="24" t="s">
@@ -13793,8 +14225,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="115"/>
-      <c r="B55" s="107" t="s">
+      <c r="A55" s="111"/>
+      <c r="B55" s="103" t="s">
         <v>517</v>
       </c>
       <c r="C55" s="24" t="s">
@@ -13805,8 +14237,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="115"/>
-      <c r="B56" s="107" t="s">
+      <c r="A56" s="111"/>
+      <c r="B56" s="103" t="s">
         <v>518</v>
       </c>
       <c r="C56" s="24" t="s">
@@ -13817,8 +14249,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="115"/>
-      <c r="B57" s="107" t="s">
+      <c r="A57" s="111"/>
+      <c r="B57" s="103" t="s">
         <v>519</v>
       </c>
       <c r="C57" s="24" t="b">
@@ -13829,8 +14261,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="115"/>
-      <c r="B58" s="107" t="s">
+      <c r="A58" s="111"/>
+      <c r="B58" s="103" t="s">
         <v>520</v>
       </c>
       <c r="C58" s="24" t="b">
@@ -13841,8 +14273,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="115"/>
-      <c r="B59" s="107" t="s">
+      <c r="A59" s="111"/>
+      <c r="B59" s="103" t="s">
         <v>521</v>
       </c>
       <c r="C59" s="24" t="b">
@@ -13853,8 +14285,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="115"/>
-      <c r="B60" s="107" t="s">
+      <c r="A60" s="111"/>
+      <c r="B60" s="103" t="s">
         <v>522</v>
       </c>
       <c r="C60" s="24" t="b">
@@ -13865,8 +14297,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="115"/>
-      <c r="B61" s="107" t="s">
+      <c r="A61" s="111"/>
+      <c r="B61" s="103" t="s">
         <v>523</v>
       </c>
       <c r="C61" s="24" t="b">
@@ -13877,8 +14309,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="115"/>
-      <c r="B62" s="107" t="s">
+      <c r="A62" s="111"/>
+      <c r="B62" s="103" t="s">
         <v>524</v>
       </c>
       <c r="C62" s="24" t="b">
@@ -13889,8 +14321,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="115"/>
-      <c r="B63" s="107" t="s">
+      <c r="A63" s="111"/>
+      <c r="B63" s="103" t="s">
         <v>525</v>
       </c>
       <c r="C63" s="24" t="s">
@@ -13901,8 +14333,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117" t="s">
+      <c r="A64" s="112"/>
+      <c r="B64" s="113" t="s">
         <v>517</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -13944,7 +14376,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -13961,7 +14393,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -13978,7 +14410,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="79">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -13995,7 +14427,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="79">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -14012,7 +14444,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="79">
+      <c r="A5" s="77">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -14029,7 +14461,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="79">
+      <c r="A6" s="77">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -14046,7 +14478,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="79">
+      <c r="A7" s="77">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -14063,7 +14495,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="79">
+      <c r="A8" s="77">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -14080,7 +14512,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="79">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -14097,7 +14529,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="78">
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -14498,10 +14930,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="80" t="s">
         <v>400</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -14515,7 +14947,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -14532,7 +14964,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="79">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -14549,7 +14981,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="79">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -14566,7 +14998,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="79">
+      <c r="A5" s="77">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -14583,7 +15015,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="79">
+      <c r="A6" s="77">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -14600,7 +15032,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="79">
+      <c r="A7" s="77">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -14617,7 +15049,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="79">
+      <c r="A8" s="77">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -14634,7 +15066,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="79">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -14651,7 +15083,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="79">
+      <c r="A10" s="77">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -14668,7 +15100,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="79">
+      <c r="A11" s="77">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -14685,7 +15117,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="79">
+      <c r="A12" s="77">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -14702,7 +15134,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="79">
+      <c r="A13" s="77">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -14719,7 +15151,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="79">
+      <c r="A14" s="77">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -14736,7 +15168,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="79">
+      <c r="A15" s="77">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -14753,7 +15185,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="79">
+      <c r="A16" s="77">
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -14770,7 +15202,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="79">
+      <c r="A17" s="77">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -14787,7 +15219,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="79">
+      <c r="A18" s="77">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -14804,7 +15236,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="79">
+      <c r="A19" s="77">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -14821,7 +15253,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="79">
+      <c r="A20" s="77">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -14838,7 +15270,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="79">
+      <c r="A21" s="77">
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -14855,7 +15287,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="79">
+      <c r="A22" s="77">
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -14872,7 +15304,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="79">
+      <c r="A23" s="77">
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -14889,7 +15321,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="79">
+      <c r="A24" s="77">
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -14906,7 +15338,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="81" t="s">
         <v>308</v>
       </c>
       <c r="B25" s="51" t="s">
@@ -14914,7 +15346,7 @@
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="84"/>
+      <c r="E25" s="82"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
@@ -14950,7 +15382,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -14961,11 +15393,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="84">
         <v>1</v>
       </c>
     </row>
@@ -15064,10 +15496,10 @@
     </row>
     <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="80" t="s">
         <v>428</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -15078,14 +15510,14 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="86">
-        <v>1</v>
-      </c>
-      <c r="D17" s="86">
+      <c r="C17" s="84">
+        <v>1</v>
+      </c>
+      <c r="D17" s="84">
         <v>2</v>
       </c>
     </row>
@@ -15312,7 +15744,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="51" t="s">
         <v>364</v>
       </c>
@@ -15349,30 +15781,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="96"/>
       <c r="D1" s="21" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="101" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="86">
+      <c r="C2" s="98"/>
+      <c r="D2" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="99" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="45"/>
@@ -15382,7 +15814,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="99" t="s">
         <v>170</v>
       </c>
       <c r="C4" s="45"/>
@@ -15392,7 +15824,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="99" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="45"/>
@@ -15402,7 +15834,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="99" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="45"/>
@@ -15412,7 +15844,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="99" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="45"/>
@@ -15422,7 +15854,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="99" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="45"/>
@@ -15432,7 +15864,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="99" t="s">
         <v>230</v>
       </c>
       <c r="C9" s="45"/>
@@ -15442,7 +15874,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="99" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="45"/>
@@ -15452,7 +15884,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="99" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="45"/>
@@ -15462,7 +15894,7 @@
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="100" t="s">
         <v>195</v>
       </c>
       <c r="C12" s="54"/>
@@ -15471,26 +15903,24 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="88"/>
+      <c r="B13"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="88"/>
+      <c r="B14"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="88" t="s">
         <v>206</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -15501,14 +15931,14 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="84">
         <v>1</v>
       </c>
     </row>
@@ -15717,23 +16147,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
+      <c r="B35"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
+      <c r="B36"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="80" t="s">
         <v>428</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -15744,14 +16172,14 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="37">
         <v>2</v>
       </c>
-      <c r="D39" s="86">
+      <c r="D39" s="84">
         <v>1</v>
       </c>
     </row>
@@ -15960,11 +16388,11 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="90" t="s">
         <v>216</v>
       </c>
       <c r="D57" s="28" t="s">
@@ -15972,14 +16400,14 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="96" t="s">
+      <c r="A58" s="91"/>
+      <c r="B58" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="98" t="s">
+      <c r="D58" s="94" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16014,10 +16442,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="80" t="s">
         <v>428</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -16028,14 +16456,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86">
-        <v>1</v>
-      </c>
-      <c r="D2" s="86">
+      <c r="C2" s="84">
+        <v>1</v>
+      </c>
+      <c r="D2" s="84">
         <v>2</v>
       </c>
     </row>
@@ -16268,7 +16696,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="51" t="s">
         <v>364</v>
       </c>
@@ -16335,7 +16763,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="102" t="s">
         <v>527</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -16352,7 +16780,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="102" t="s">
         <v>497</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -16369,7 +16797,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="102" t="s">
         <v>498</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -16386,7 +16814,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="102" t="s">
         <v>499</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -16403,7 +16831,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -16420,7 +16848,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="102" t="s">
         <v>502</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -16437,7 +16865,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="102" t="s">
         <v>504</v>
       </c>
       <c r="B9" s="7" t="b">
@@ -16451,7 +16879,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="102" t="s">
         <v>505</v>
       </c>
       <c r="B10" s="7">
@@ -16468,7 +16896,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="102" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="7">
@@ -16485,7 +16913,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="102" t="s">
         <v>507</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -16502,7 +16930,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="102" t="s">
         <v>509</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -16516,7 +16944,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="102" t="s">
         <v>510</v>
       </c>
       <c r="B14" s="7"/>
@@ -16528,7 +16956,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="102" t="s">
         <v>517</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -16569,7 +16997,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="7">
@@ -16595,7 +17023,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -16621,7 +17049,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="102" t="s">
         <v>512</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -16647,7 +17075,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="102" t="s">
         <v>513</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -16673,7 +17101,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="102" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -16699,7 +17127,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="102" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -16725,7 +17153,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="102" t="s">
         <v>514</v>
       </c>
       <c r="B25" s="7"/>
@@ -16741,7 +17169,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="102" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -16767,7 +17195,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="102" t="s">
         <v>515</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -16793,7 +17221,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="102" t="s">
         <v>516</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -16819,7 +17247,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -16845,7 +17273,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="102" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -16871,7 +17299,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="102" t="s">
         <v>107</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -16897,7 +17325,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="102" t="s">
         <v>517</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -16923,7 +17351,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="102" t="s">
         <v>518</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -16949,7 +17377,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="102" t="s">
         <v>519</v>
       </c>
       <c r="B34" s="7" t="b">
@@ -16975,7 +17403,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="102" t="s">
         <v>520</v>
       </c>
       <c r="B35" s="7" t="b">
@@ -17001,7 +17429,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="102" t="s">
         <v>521</v>
       </c>
       <c r="B36" s="7" t="b">
@@ -17027,7 +17455,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="102" t="s">
         <v>522</v>
       </c>
       <c r="B37" s="7" t="b">
@@ -17053,7 +17481,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="102" t="s">
         <v>523</v>
       </c>
       <c r="B38" s="7" t="b">
@@ -17079,7 +17507,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="102" t="s">
         <v>524</v>
       </c>
       <c r="B39" s="7" t="b">
@@ -17105,7 +17533,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="102" t="s">
         <v>525</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -17131,7 +17559,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="102" t="s">
         <v>517</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -17182,7 +17610,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="102" t="s">
         <v>0</v>
       </c>
       <c r="I45" t="s">
@@ -17190,7 +17618,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I46" t="s">
@@ -17201,7 +17629,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="102" t="s">
         <v>512</v>
       </c>
       <c r="I47" t="s">
@@ -17212,7 +17640,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="102" t="s">
         <v>513</v>
       </c>
       <c r="I48" t="s">
@@ -17223,7 +17651,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="102" t="s">
         <v>75</v>
       </c>
       <c r="I49" t="s">
@@ -17234,7 +17662,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="102" t="s">
         <v>80</v>
       </c>
       <c r="I50" t="s">
@@ -17245,7 +17673,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="102" t="s">
         <v>514</v>
       </c>
       <c r="I51" t="s">
@@ -17256,7 +17684,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="102" t="s">
         <v>38</v>
       </c>
       <c r="I52" t="s">
@@ -17267,7 +17695,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="102" t="s">
         <v>515</v>
       </c>
       <c r="I53" t="s">
@@ -17278,7 +17706,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="102" t="s">
         <v>516</v>
       </c>
       <c r="I54" t="s">
@@ -17289,7 +17717,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I55" t="s">
@@ -17300,7 +17728,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="102" t="s">
         <v>57</v>
       </c>
       <c r="I56" t="s">
@@ -17311,7 +17739,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="102" t="s">
         <v>107</v>
       </c>
       <c r="I57" t="s">
@@ -17322,7 +17750,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="102" t="s">
         <v>517</v>
       </c>
       <c r="I58" t="s">
@@ -17333,7 +17761,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="102" t="s">
         <v>518</v>
       </c>
       <c r="I59" t="s">
@@ -17344,7 +17772,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="102" t="s">
         <v>519</v>
       </c>
       <c r="I60" t="s">
@@ -17355,7 +17783,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="102" t="s">
         <v>520</v>
       </c>
       <c r="I61" t="s">
@@ -17366,7 +17794,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="106" t="s">
+      <c r="A62" s="102" t="s">
         <v>521</v>
       </c>
       <c r="I62" t="s">
@@ -17377,7 +17805,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="106" t="s">
+      <c r="A63" s="102" t="s">
         <v>522</v>
       </c>
       <c r="I63" t="s">
@@ -17388,7 +17816,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="106" t="s">
+      <c r="A64" s="102" t="s">
         <v>523</v>
       </c>
       <c r="I64" t="s">
@@ -17399,7 +17827,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="102" t="s">
         <v>524</v>
       </c>
       <c r="I65" t="s">
@@ -17410,7 +17838,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="102" t="s">
         <v>525</v>
       </c>
       <c r="I66" t="s">
@@ -17421,7 +17849,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="102" t="s">
         <v>517</v>
       </c>
       <c r="I67" t="s">
@@ -17459,7 +17887,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="106" t="s">
+      <c r="A71" s="102" t="s">
         <v>0</v>
       </c>
       <c r="I71" t="s">
@@ -17470,7 +17898,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="106" t="s">
+      <c r="A72" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I72" t="s">
@@ -17481,7 +17909,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="102" t="s">
         <v>512</v>
       </c>
       <c r="I73" t="s">
@@ -17492,7 +17920,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="102" t="s">
         <v>513</v>
       </c>
       <c r="I74" t="s">
@@ -17503,7 +17931,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="102" t="s">
         <v>75</v>
       </c>
       <c r="I75" t="s">
@@ -17514,7 +17942,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="106" t="s">
+      <c r="A76" s="102" t="s">
         <v>80</v>
       </c>
       <c r="I76" t="s">
@@ -17525,7 +17953,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="106" t="s">
+      <c r="A77" s="102" t="s">
         <v>514</v>
       </c>
       <c r="I77" t="s">
@@ -17536,7 +17964,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="102" t="s">
         <v>38</v>
       </c>
       <c r="I78" t="s">
@@ -17547,7 +17975,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="102" t="s">
         <v>515</v>
       </c>
       <c r="I79" t="s">
@@ -17558,7 +17986,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="106" t="s">
+      <c r="A80" s="102" t="s">
         <v>516</v>
       </c>
       <c r="I80" t="s">
@@ -17569,7 +17997,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="106" t="s">
+      <c r="A81" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I81" t="s">
@@ -17580,7 +18008,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="106" t="s">
+      <c r="A82" s="102" t="s">
         <v>57</v>
       </c>
       <c r="I82" t="s">
@@ -17591,7 +18019,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="106" t="s">
+      <c r="A83" s="102" t="s">
         <v>107</v>
       </c>
       <c r="I83" t="s">
@@ -17602,7 +18030,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="102" t="s">
         <v>517</v>
       </c>
       <c r="I84" t="s">
@@ -17613,7 +18041,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="106" t="s">
+      <c r="A85" s="102" t="s">
         <v>518</v>
       </c>
       <c r="I85" t="s">
@@ -17624,7 +18052,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="106" t="s">
+      <c r="A86" s="102" t="s">
         <v>519</v>
       </c>
       <c r="I86" t="s">
@@ -17635,7 +18063,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="106" t="s">
+      <c r="A87" s="102" t="s">
         <v>520</v>
       </c>
       <c r="I87" t="s">
@@ -17646,7 +18074,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="102" t="s">
         <v>521</v>
       </c>
       <c r="I88" t="s">
@@ -17657,7 +18085,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="106" t="s">
+      <c r="A89" s="102" t="s">
         <v>522</v>
       </c>
       <c r="I89" t="s">
@@ -17668,7 +18096,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="106" t="s">
+      <c r="A90" s="102" t="s">
         <v>523</v>
       </c>
       <c r="I90" t="s">
@@ -17679,7 +18107,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="106" t="s">
+      <c r="A91" s="102" t="s">
         <v>524</v>
       </c>
       <c r="I91" t="s">
@@ -17690,7 +18118,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="102" t="s">
         <v>525</v>
       </c>
       <c r="I92" t="s">
@@ -17717,7 +18145,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="106" t="s">
+      <c r="A95" s="102" t="s">
         <v>0</v>
       </c>
       <c r="I95" t="s">
@@ -17728,7 +18156,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="106" t="s">
+      <c r="A96" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I96" t="s">
@@ -17739,7 +18167,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="102" t="s">
         <v>512</v>
       </c>
       <c r="I97" t="s">
@@ -17750,7 +18178,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="106" t="s">
+      <c r="A98" s="102" t="s">
         <v>513</v>
       </c>
       <c r="I98" t="s">
@@ -17761,7 +18189,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="106" t="s">
+      <c r="A99" s="102" t="s">
         <v>75</v>
       </c>
       <c r="I99" t="s">
@@ -17772,7 +18200,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="106" t="s">
+      <c r="A100" s="102" t="s">
         <v>80</v>
       </c>
       <c r="I100" t="s">
@@ -17783,7 +18211,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="106" t="s">
+      <c r="A101" s="102" t="s">
         <v>514</v>
       </c>
       <c r="I101" t="s">
@@ -17794,7 +18222,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="102" t="s">
         <v>38</v>
       </c>
       <c r="I102" t="s">
@@ -17805,7 +18233,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="106" t="s">
+      <c r="A103" s="102" t="s">
         <v>515</v>
       </c>
       <c r="I103" t="s">
@@ -17816,7 +18244,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="102" t="s">
         <v>516</v>
       </c>
       <c r="I104" t="s">
@@ -17827,7 +18255,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I105" t="s">
@@ -17838,7 +18266,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="106"/>
+      <c r="A106" s="102"/>
       <c r="I106" t="s">
         <v>456</v>
       </c>
@@ -17847,7 +18275,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="106" t="s">
+      <c r="A107" s="102" t="s">
         <v>57</v>
       </c>
       <c r="I107" t="s">
@@ -17858,7 +18286,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="106" t="s">
+      <c r="A108" s="102" t="s">
         <v>107</v>
       </c>
       <c r="I108" t="s">
@@ -17869,7 +18297,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="106" t="s">
+      <c r="A109" s="102" t="s">
         <v>517</v>
       </c>
       <c r="I109" t="s">
@@ -17880,7 +18308,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="106" t="s">
+      <c r="A110" s="102" t="s">
         <v>518</v>
       </c>
       <c r="I110" t="s">
@@ -17891,7 +18319,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="106" t="s">
+      <c r="A111" s="102" t="s">
         <v>519</v>
       </c>
       <c r="I111" t="s">
@@ -17902,7 +18330,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="106" t="s">
+      <c r="A112" s="102" t="s">
         <v>520</v>
       </c>
       <c r="I112" t="s">
@@ -17913,7 +18341,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="106" t="s">
+      <c r="A113" s="102" t="s">
         <v>521</v>
       </c>
       <c r="I113" t="s">
@@ -17924,7 +18352,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="106" t="s">
+      <c r="A114" s="102" t="s">
         <v>522</v>
       </c>
       <c r="I114" t="s">
@@ -17935,7 +18363,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="106" t="s">
+      <c r="A115" s="102" t="s">
         <v>523</v>
       </c>
       <c r="I115" t="s">
@@ -17946,7 +18374,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="106" t="s">
+      <c r="A116" s="102" t="s">
         <v>524</v>
       </c>
       <c r="I116" t="s">
@@ -17957,7 +18385,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="106" t="s">
+      <c r="A117" s="102" t="s">
         <v>525</v>
       </c>
       <c r="I117" t="s">
@@ -17968,7 +18396,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="106" t="s">
+      <c r="A118" s="102" t="s">
         <v>517</v>
       </c>
       <c r="I118" t="s">
@@ -18006,7 +18434,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="106" t="s">
+      <c r="A122" s="102" t="s">
         <v>0</v>
       </c>
       <c r="I122" t="s">
@@ -18017,7 +18445,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="106" t="s">
+      <c r="A123" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I123" t="s">
@@ -18028,7 +18456,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="106" t="s">
+      <c r="A124" s="102" t="s">
         <v>512</v>
       </c>
       <c r="I124" t="s">
@@ -18039,7 +18467,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="106" t="s">
+      <c r="A125" s="102" t="s">
         <v>513</v>
       </c>
       <c r="I125" t="s">
@@ -18050,7 +18478,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="106" t="s">
+      <c r="A126" s="102" t="s">
         <v>75</v>
       </c>
       <c r="I126" t="s">
@@ -18061,7 +18489,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="106" t="s">
+      <c r="A127" s="102" t="s">
         <v>80</v>
       </c>
       <c r="I127" t="s">
@@ -18072,7 +18500,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="106" t="s">
+      <c r="A128" s="102" t="s">
         <v>514</v>
       </c>
       <c r="I128" t="s">
@@ -18083,7 +18511,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="106" t="s">
+      <c r="A129" s="102" t="s">
         <v>38</v>
       </c>
       <c r="I129" t="s">
@@ -18094,7 +18522,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="106" t="s">
+      <c r="A130" s="102" t="s">
         <v>515</v>
       </c>
       <c r="I130" t="s">
@@ -18105,7 +18533,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="106" t="s">
+      <c r="A131" s="102" t="s">
         <v>516</v>
       </c>
       <c r="I131" t="s">
@@ -18116,7 +18544,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="106" t="s">
+      <c r="A132" s="102" t="s">
         <v>16</v>
       </c>
       <c r="I132" t="s">
@@ -18127,7 +18555,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="106"/>
+      <c r="A133" s="102"/>
       <c r="I133" t="s">
         <v>458</v>
       </c>
@@ -18136,7 +18564,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="106" t="s">
+      <c r="A134" s="102" t="s">
         <v>57</v>
       </c>
       <c r="I134" t="s">
@@ -18147,7 +18575,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="106" t="s">
+      <c r="A135" s="102" t="s">
         <v>107</v>
       </c>
       <c r="I135" t="s">
@@ -18158,7 +18586,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="106" t="s">
+      <c r="A136" s="102" t="s">
         <v>517</v>
       </c>
       <c r="M136" t="s">
@@ -18166,42 +18594,42 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="106" t="s">
+      <c r="A137" s="102" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="106" t="s">
+      <c r="A138" s="102" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="106" t="s">
+      <c r="A139" s="102" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="106" t="s">
+      <c r="A140" s="102" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="106" t="s">
+      <c r="A141" s="102" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="106" t="s">
+      <c r="A142" s="102" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="106" t="s">
+      <c r="A143" s="102" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="106" t="s">
+      <c r="A144" s="102" t="s">
         <v>525</v>
       </c>
     </row>

--- a/docs/report-generator/092825-api-calls.xlsx
+++ b/docs/report-generator/092825-api-calls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray.stamps/Documents/as-built-report/ps-deploy-report/docs/report-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D2414-2A58-E74C-8AD6-A40F5133D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F4366-A0DB-D942-9AF3-4EE92BB93ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="760" windowWidth="26440" windowHeight="21580" xr2:uid="{5D9104DC-D0A5-A54E-927F-9586B89AC5B0}"/>
+    <workbookView xWindow="2380" yWindow="5000" windowWidth="26440" windowHeight="21580" xr2:uid="{5D9104DC-D0A5-A54E-927F-9586B89AC5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Summary" sheetId="17" r:id="rId1"/>

--- a/docs/report-generator/092825-api-calls.xlsx
+++ b/docs/report-generator/092825-api-calls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray.stamps/Documents/as-built-report/ps-deploy-report/docs/report-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F4366-A0DB-D942-9AF3-4EE92BB93ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B690AEA-E53C-684A-B1B1-CEA296DA49B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="5000" windowWidth="26440" windowHeight="21580" xr2:uid="{5D9104DC-D0A5-A54E-927F-9586B89AC5B0}"/>
+    <workbookView xWindow="-34000" yWindow="-13220" windowWidth="33980" windowHeight="24980" xr2:uid="{5D9104DC-D0A5-A54E-927F-9586B89AC5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Summary" sheetId="17" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="608">
   <si>
     <t>id</t>
   </si>
@@ -1845,6 +1845,39 @@
   </si>
   <si>
     <t xml:space="preserve">.external_hotfix_version, </t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.id, .state, .ssd_raid_state, .nvram_raid_state, .memory_raid_state, .leader_state, .leader_cnode, .mgmt_cnode, .mgmt_inner_vip, .mgmt_inner_vip_cnode] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.usable_capacity_tb, .free_usable_capacity_tb, .drr_text, .physical_space_tb, .physical_space_in_use_tb, .free_physical_space_tb, .physical_space_in_use_percent, .logical_space_tb, .logical_space_in_use_tb, .free_logical_space_tb, .logical_space_in_use_percent] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.enabled, .enable_similarity, .dedup_active, .is_wb_raid_enabled, .wb_raid_layout, .dbox_ha_support, .enable_rack_level_resiliency, .disable_metrics] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.enable_encryption, .S3_ENABLE_ONLY_AES_CIPHERS, .encryption_type, .ekm_servers, .ekm_address, .ekm_port, .ekm_auth_domain, .secondary_ekm_address, .secondary_ekm_port] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.ebox, .external_version, .external_build, .external_sp_version, .external_hotfix_version] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.management_vips, .external_gateways, .dns, .ntp, .ext_netmask, .auto_ports_ext_iface, .b2b_ipmi, .eth_mtu, .ib_mtu, .ipmi_gateway, .ipmi_netmask] | @csv'</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/vms/1/network_settings/' | jq -r '.[0] | [.id, .hostname, .nb_eth_mtu, .nb_ib_mtu, .mgmt_ip, .ipmi_ip, .box_vendor, .vast_os, .node_type, .hostname,.ip, .position, .box_name, .box_uid, .is_ceres, .is_vms_host, .tpm_boot_dev_encryption_supported, .tpm_boot_dev_encryption_enabled, .is_ceres_v2, .single_nic, .net_type, .box_name] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/vms/1/network_settings/' | jq -r '. | [.id, .hostname, .nb_eth_mtu, .nb_ib_mtu, .mgmt_ip, .ipmi_ip, .box_vendor, .vast_os, .node_type, .hostname,.ip, .position, .box_name, .box_uid, .is_ceres, .is_vms_host, .tpm_boot_dev_encryption_supported, .tpm_boot_dev_encryption_enabled, .is_ceres_v2, .single_nic, .net_type, .box_name] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/vms/1/network_settings/' | jq -r  '. | [.id, .hostname, .nb_eth_mtu, .nb_ib_mtu, .mgmt_ip, .ipmi_ip, .box_vendor, .vast_os, .node_type, .hostname,.ip, .position, .box_name, .box_uid, .is_ceres, .is_vms_host, .tpm_boot_dev_encryption_supported, .tpm_boot_dev_encryption_enabled, .is_ceres_v2, .single_nic, .net_type, .box_name] | @csv'</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3022,7 +3055,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3033,18 +3065,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3088,8 +3114,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3425,22 +3457,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33175DF-3FE3-4944-8504-CD08E73C66CD}">
-  <dimension ref="A2:G243"/>
+  <dimension ref="A2:Y242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72:B82"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="5" max="5" width="203.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
     <col min="6" max="7" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3479,12 +3511,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="115"/>
       <c r="C7" s="30"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="155" t="s">
         <v>547</v>
       </c>
     </row>
@@ -3639,34 +3671,40 @@
       <c r="E17" s="102"/>
     </row>
     <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="102"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A18" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="131"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="155" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C20" s="31" t="s">
         <v>238</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="102"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>260</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="102"/>
@@ -3676,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>260</v>
@@ -3689,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>260</v>
@@ -3702,10 +3740,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="102"/>
@@ -3715,10 +3753,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="102"/>
@@ -3728,10 +3766,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="102"/>
@@ -3741,55 +3779,57 @@
         <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="102"/>
     </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
         <v>2</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>8</v>
+      <c r="B27" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>280</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="141"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="63"/>
+      <c r="A28" s="29">
+        <v>2</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="102"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+    <row r="29" spans="1:5" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="138"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="155" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
         <v>2</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="102"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>2</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" s="32" t="b">
+      <c r="C30" s="31" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="6"/>
@@ -3800,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C31" s="32" t="b">
         <v>1</v>
@@ -3813,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C32" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="102"/>
@@ -3826,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="C33" s="32" t="b">
         <v>1</v>
@@ -3839,10 +3879,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="32" t="b">
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="102"/>
@@ -3852,10 +3892,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>294</v>
+        <v>265</v>
+      </c>
+      <c r="C35" s="32" t="b">
+        <v>0</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="102"/>
@@ -3865,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="C36" s="32" t="b">
         <v>0</v>
@@ -3873,63 +3913,71 @@
       <c r="D36" s="6"/>
       <c r="E36" s="102"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
         <v>2</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C37" s="32" t="b">
+      <c r="B37" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="34" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="102"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
-        <v>2</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>298</v>
-      </c>
+    <row r="38" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="131"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="133"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="102"/>
-    </row>
-    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>2</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C39" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="E38" s="155" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>3</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="31">
+        <v>222.905</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E39" s="102"/>
     </row>
-    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="6"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="32">
+        <v>94.072999999999993</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E40" s="102"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="24">
         <v>3</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C41" s="31">
-        <v>222.905</v>
-      </c>
-      <c r="D41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>604</v>
+      </c>
       <c r="E41" s="102"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3937,12 +3985,14 @@
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="32">
-        <v>94.072999999999993</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>282.09500000000003</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E42" s="102"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3950,12 +4000,14 @@
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C43" s="32">
+        <v>162.61000000000001</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E43" s="102"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3963,12 +4015,14 @@
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C44" s="32">
-        <v>282.09500000000003</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>119.485</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E44" s="102"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3976,12 +4030,14 @@
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C45" s="32">
-        <v>162.61000000000001</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>57.64</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>604</v>
+      </c>
       <c r="E45" s="102"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3989,12 +4045,14 @@
         <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C46" s="32">
-        <v>119.485</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>391.048</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E46" s="102"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4002,12 +4060,14 @@
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C47" s="32">
-        <v>57.64</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>225.55199999999999</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E47" s="102"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4015,69 +4075,75 @@
         <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C48" s="32">
-        <v>391.048</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>165.03399999999999</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E48" s="102"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="24">
+    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
         <v>3</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="32">
-        <v>225.55199999999999</v>
-      </c>
-      <c r="D49" s="6"/>
+      <c r="B49" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="34">
+        <v>57.68</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>604</v>
+      </c>
       <c r="E49" s="102"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
-        <v>3</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C50" s="32">
-        <v>165.03399999999999</v>
-      </c>
+    <row r="50" spans="1:5" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="131"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="102"/>
-    </row>
-    <row r="51" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
-        <v>3</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="34">
-        <v>57.68</v>
+      <c r="E50" s="155" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="23">
+        <v>4</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="102"/>
     </row>
-    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="32" t="b">
+        <v>1</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="102"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
+      <c r="A53" s="24">
         <v>4</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="31" t="b">
-        <v>0</v>
+      <c r="B53" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="102"/>
@@ -4087,11 +4153,9 @@
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="32" t="b">
-        <v>1</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C54" s="32"/>
       <c r="D54" s="6"/>
       <c r="E54" s="102"/>
     </row>
@@ -4100,11 +4164,9 @@
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>241</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C55" s="32"/>
       <c r="D55" s="6"/>
       <c r="E55" s="102"/>
     </row>
@@ -4113,9 +4175,11 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" s="32"/>
+        <v>283</v>
+      </c>
+      <c r="C56" s="32">
+        <v>5696</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="102"/>
     </row>
@@ -4124,7 +4188,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="6"/>
@@ -4135,61 +4199,57 @@
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="32">
-        <v>5696</v>
+        <v>284</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="102"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="24">
+      <c r="A59" s="29">
         <v>4</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="32"/>
+      <c r="B59" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="33">
+        <v>5696</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="102"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="24">
-        <v>4</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>216</v>
-      </c>
+    <row r="60" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="131"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="133"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="102"/>
-    </row>
-    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29">
-        <v>4</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C61" s="33">
-        <v>5696</v>
+      <c r="E60" s="155" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="122" t="b">
+        <v>0</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="102"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C62" s="122" t="b">
-        <v>0</v>
-      </c>
+      <c r="B62" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="123"/>
       <c r="D62" s="6"/>
       <c r="E62" s="102"/>
     </row>
@@ -4198,7 +4258,7 @@
         <v>308</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C63" s="123"/>
       <c r="D63" s="6"/>
@@ -4209,268 +4269,290 @@
         <v>308</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C64" s="123"/>
       <c r="D64" s="6"/>
       <c r="E64" s="102"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="46" t="s">
+    <row r="65" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="B65" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="C65" s="123"/>
+      <c r="B65" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="124"/>
       <c r="D65" s="6"/>
       <c r="E65" s="102"/>
     </row>
-    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="102"/>
-    </row>
-    <row r="69" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="120" t="s">
+    <row r="68" spans="1:25" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="120" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+    <row r="69" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="B70" s="88" t="s">
+      <c r="B69" s="88" t="s">
         <v>304</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C69" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="129" t="s">
+      <c r="D69" s="129" t="s">
         <v>546</v>
       </c>
-      <c r="E70" s="129" t="s">
+      <c r="E69" s="129" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="144"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="116">
+    <row r="70" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="141"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="155" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="116">
         <v>5</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B71" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="C72" s="125" t="s">
+      <c r="C71" s="125" t="s">
         <v>243</v>
       </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" s="35">
+        <v>5</v>
+      </c>
+      <c r="B72" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>508</v>
+      </c>
       <c r="D72" s="6"/>
-      <c r="E72" s="131"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="35">
         <v>5</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="D73" s="6"/>
-      <c r="E73" s="131"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="35">
         <v>5</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D74" s="6"/>
-      <c r="E74" s="131"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="35">
         <v>5</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D75" s="6"/>
-      <c r="E75" s="131"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="6"/>
+      <c r="Y75" s="157"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
         <v>5</v>
       </c>
       <c r="B76" s="63" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D76" s="6"/>
-      <c r="E76" s="131"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
         <v>5</v>
       </c>
       <c r="B77" s="63" t="s">
-        <v>502</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="C77" s="32" t="b">
+        <v>0</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="131"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
         <v>5</v>
       </c>
       <c r="B78" s="63" t="s">
-        <v>504</v>
-      </c>
-      <c r="C78" s="32" t="b">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="C78" s="32">
+        <v>9000</v>
       </c>
       <c r="D78" s="6"/>
-      <c r="E78" s="131"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="6"/>
+      <c r="G78" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="35">
         <v>5</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C79" s="32">
-        <v>9000</v>
+        <v>65520</v>
       </c>
       <c r="D79" s="6"/>
-      <c r="E79" s="131"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="6"/>
+      <c r="G79" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="35">
         <v>5</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="C80" s="32">
-        <v>65520</v>
+        <v>507</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>508</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="131"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="35">
+      <c r="E80" s="6"/>
+      <c r="G80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="117">
         <v>5</v>
       </c>
-      <c r="B81" s="63" t="s">
-        <v>507</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>508</v>
+      <c r="B81" s="86" t="s">
+        <v>509</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>501</v>
       </c>
       <c r="D81" s="6"/>
-      <c r="E81" s="131"/>
-    </row>
-    <row r="82" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="117">
-        <v>5</v>
-      </c>
-      <c r="B82" s="86" t="s">
-        <v>509</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="131"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="108"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="108"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="108"/>
+    </row>
+    <row r="84" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="121" t="s">
+        <v>55</v>
+      </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="B86" s="115" t="s">
+      <c r="B85" s="156" t="s">
         <v>534</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C85" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D85" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="126" t="s">
+      <c r="E85" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="F86" s="129" t="s">
+      <c r="F85" s="129" t="s">
         <v>546</v>
       </c>
-      <c r="G86" s="129" t="s">
+      <c r="G85" s="129" t="s">
         <v>545</v>
       </c>
     </row>
+    <row r="86" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A86" s="143"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="135"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="129"/>
+      <c r="G86" s="155" t="s">
+        <v>605</v>
+      </c>
+    </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="146"/>
-      <c r="B87" s="138"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="147"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="129"/>
-      <c r="G87" s="129"/>
+      <c r="A87" s="110">
+        <v>5</v>
+      </c>
+      <c r="B87" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="114">
+        <v>1</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2</v>
+      </c>
+      <c r="E87" s="125">
+        <v>8</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="102"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="110">
+      <c r="A88" s="111">
         <v>5</v>
       </c>
-      <c r="B88" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="114">
-        <v>1</v>
-      </c>
-      <c r="D88" s="9">
-        <v>2</v>
-      </c>
-      <c r="E88" s="125">
-        <v>8</v>
+      <c r="B88" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>366</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="102"/>
@@ -4480,16 +4562,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="103" t="s">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>383</v>
+        <v>216</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>374</v>
+        <v>216</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="102"/>
@@ -4499,7 +4581,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="103" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>216</v>
@@ -4518,16 +4600,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="103" t="s">
-        <v>513</v>
+        <v>75</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="102"/>
@@ -4537,16 +4619,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="102"/>
@@ -4556,16 +4638,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>371</v>
+        <v>528</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="102"/>
@@ -4575,16 +4657,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>38</v>
+        <v>515</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>389</v>
+        <v>143</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>528</v>
+        <v>365</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="102"/>
@@ -4594,16 +4676,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="102"/>
@@ -4613,16 +4695,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="102"/>
@@ -4632,16 +4714,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="103" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="102"/>
@@ -4651,16 +4733,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="103" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="102"/>
@@ -4670,16 +4752,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="103" t="s">
-        <v>107</v>
+        <v>517</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>108</v>
+        <v>336</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="102"/>
@@ -4689,16 +4771,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="103" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="102"/>
@@ -4708,16 +4790,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="103" t="s">
-        <v>518</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>342</v>
+        <v>519</v>
+      </c>
+      <c r="C101" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="32" t="b">
+        <v>0</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="102"/>
@@ -4727,10 +4809,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="103" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C102" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="7" t="b">
         <v>0</v>
@@ -4746,10 +4828,10 @@
         <v>5</v>
       </c>
       <c r="B103" s="103" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C103" s="24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="7" t="b">
         <v>0</v>
@@ -4765,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="103" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C104" s="24" t="b">
         <v>0</v>
@@ -4784,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="103" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C105" s="24" t="b">
         <v>0</v>
@@ -4803,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="103" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C106" s="24" t="b">
         <v>0</v>
@@ -4822,107 +4904,104 @@
         <v>5</v>
       </c>
       <c r="B107" s="103" t="s">
-        <v>524</v>
-      </c>
-      <c r="C107" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="32" t="b">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>526</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="102"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="111">
+    <row r="108" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="112">
         <v>5</v>
       </c>
-      <c r="B108" s="103" t="s">
-        <v>525</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>526</v>
+      <c r="B108" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>340</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="102"/>
     </row>
-    <row r="109" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="112">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="111" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B112" s="115" t="s">
+        <v>534</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="E112" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="F112" s="129" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="143"/>
+      <c r="B113" s="136"/>
+      <c r="C113" s="135"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="129"/>
+      <c r="F113" s="129"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="110">
         <v>5</v>
       </c>
-      <c r="B109" s="113" t="s">
-        <v>517</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E109" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="102"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="1"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="112" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="B113" s="115" t="s">
-        <v>534</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="E113" s="129" t="s">
-        <v>546</v>
-      </c>
-      <c r="F113" s="129" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="146"/>
-      <c r="B114" s="138"/>
-      <c r="C114" s="137"/>
-      <c r="D114" s="139"/>
-      <c r="E114" s="129"/>
-      <c r="F114" s="129"/>
+      <c r="B114" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="114">
+        <v>5</v>
+      </c>
+      <c r="D114" s="125">
+        <v>4</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="102"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="110">
+      <c r="A115" s="111">
         <v>5</v>
       </c>
-      <c r="B115" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="114">
-        <v>5</v>
-      </c>
-      <c r="D115" s="125">
-        <v>4</v>
+      <c r="B115" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>411</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="102"/>
@@ -4932,13 +5011,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="103" t="s">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>425</v>
+        <v>216</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>411</v>
+        <v>216</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="102"/>
@@ -4948,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="B117" s="103" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>216</v>
@@ -4964,13 +5043,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="103" t="s">
-        <v>513</v>
+        <v>75</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>216</v>
+        <v>426</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="102"/>
@@ -4980,13 +5059,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="103" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>412</v>
+        <v>203</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="102"/>
@@ -4996,13 +5075,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="103" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>203</v>
+        <v>529</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="102"/>
@@ -5012,13 +5091,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="103" t="s">
-        <v>38</v>
+        <v>515</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>532</v>
+        <v>143</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>529</v>
+        <v>143</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="102"/>
@@ -5028,13 +5107,13 @@
         <v>5</v>
       </c>
       <c r="B122" s="103" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>143</v>
+        <v>429</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>143</v>
+        <v>429</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="102"/>
@@ -5044,13 +5123,13 @@
         <v>5</v>
       </c>
       <c r="B123" s="103" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="102"/>
@@ -5060,13 +5139,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="103" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="102"/>
@@ -5076,13 +5155,13 @@
         <v>5</v>
       </c>
       <c r="B125" s="103" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>426</v>
+        <v>174</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="102"/>
@@ -5092,13 +5171,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="103" t="s">
-        <v>107</v>
+        <v>517</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="102"/>
@@ -5108,13 +5187,13 @@
         <v>5</v>
       </c>
       <c r="B127" s="103" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="102"/>
@@ -5124,13 +5203,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="103" t="s">
-        <v>518</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D128" s="32" t="s">
-        <v>211</v>
+        <v>519</v>
+      </c>
+      <c r="C128" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="102"/>
@@ -5140,13 +5219,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="103" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C129" s="24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="102"/>
@@ -5156,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="103" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C130" s="24" t="b">
         <v>0</v>
@@ -5172,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="B131" s="103" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C131" s="24" t="b">
         <v>0</v>
@@ -5188,13 +5267,13 @@
         <v>5</v>
       </c>
       <c r="B132" s="103" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C132" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="102"/>
@@ -5204,13 +5283,13 @@
         <v>5</v>
       </c>
       <c r="B133" s="103" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C133" s="24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="102"/>
@@ -5220,101 +5299,104 @@
         <v>5</v>
       </c>
       <c r="B134" s="103" t="s">
-        <v>524</v>
-      </c>
-      <c r="C134" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D134" s="32" t="b">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>526</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="102"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="111">
+    <row r="135" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="112">
         <v>5</v>
       </c>
-      <c r="B135" s="103" t="s">
-        <v>525</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>526</v>
+      <c r="B135" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="102"/>
     </row>
-    <row r="136" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="112">
-        <v>5</v>
-      </c>
-      <c r="B136" s="113" t="s">
-        <v>517</v>
-      </c>
-      <c r="C136" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D136" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="102"/>
-    </row>
-    <row r="139" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="119" t="s">
+    <row r="138" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="119" t="s">
         <v>535</v>
       </c>
     </row>
+    <row r="139" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="G139" s="129" t="s">
+        <v>545</v>
+      </c>
+    </row>
     <row r="140" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="129" t="s">
-        <v>546</v>
-      </c>
-      <c r="G140" s="129" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="105"/>
-      <c r="B141" s="148"/>
-      <c r="C141" s="149"/>
-      <c r="D141" s="149"/>
-      <c r="E141" s="135"/>
-      <c r="F141" s="129"/>
-      <c r="G141" s="129"/>
+      <c r="A140" s="105"/>
+      <c r="B140" s="145"/>
+      <c r="C140" s="146"/>
+      <c r="D140" s="146"/>
+      <c r="E140" s="134"/>
+      <c r="F140" s="129"/>
+      <c r="G140" s="129"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="76">
+        <v>6</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="11">
+        <v>1</v>
+      </c>
+      <c r="D141" s="11">
+        <v>3</v>
+      </c>
+      <c r="E141" s="31">
+        <v>4</v>
+      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="102"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="76">
+      <c r="A142" s="77">
         <v>6</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" s="11">
-        <v>1</v>
-      </c>
-      <c r="D142" s="11">
-        <v>3</v>
-      </c>
-      <c r="E142" s="31">
-        <v>4</v>
+      <c r="B142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>340</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="102"/>
@@ -5324,16 +5406,16 @@
         <v>6</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>310</v>
+        <v>170</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="102"/>
@@ -5343,16 +5425,16 @@
         <v>6</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E144" s="32" t="s">
-        <v>341</v>
+        <v>212</v>
+      </c>
+      <c r="C144" s="7">
+        <v>1</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1</v>
+      </c>
+      <c r="E144" s="32">
+        <v>1</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="102"/>
@@ -5362,16 +5444,16 @@
         <v>6</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C145" s="7">
-        <v>1</v>
-      </c>
-      <c r="D145" s="7">
-        <v>1</v>
-      </c>
-      <c r="E145" s="32">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="102"/>
@@ -5381,16 +5463,16 @@
         <v>6</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="102"/>
@@ -5400,16 +5482,16 @@
         <v>6</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="102"/>
@@ -5419,110 +5501,110 @@
         <v>6</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="102"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="77">
+    <row r="149" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="78">
         <v>6</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E149" s="32" t="s">
-        <v>231</v>
+      <c r="B149" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="102"/>
     </row>
-    <row r="150" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="78">
+    <row r="152" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="119" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B153" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="G153" s="129" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="105"/>
+      <c r="B154" s="147"/>
+      <c r="C154" s="146"/>
+      <c r="D154" s="146"/>
+      <c r="E154" s="134"/>
+      <c r="F154" s="129"/>
+      <c r="G154" s="129"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="76">
         <v>6</v>
       </c>
-      <c r="B150" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E150" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="F150" s="6"/>
-      <c r="G150" s="102"/>
-    </row>
-    <row r="153" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="119" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="B154" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F154" s="129" t="s">
-        <v>546</v>
-      </c>
-      <c r="G154" s="129" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="105"/>
-      <c r="B155" s="150"/>
-      <c r="C155" s="149"/>
-      <c r="D155" s="149"/>
-      <c r="E155" s="135"/>
-      <c r="F155" s="129"/>
-      <c r="G155" s="129"/>
+      <c r="B155" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="11">
+        <v>3</v>
+      </c>
+      <c r="D155" s="11">
+        <v>2</v>
+      </c>
+      <c r="E155" s="31">
+        <v>6</v>
+      </c>
+      <c r="F155" s="6"/>
+      <c r="G155" s="102"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="76">
+      <c r="A156" s="77">
         <v>6</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="11">
-        <v>3</v>
-      </c>
-      <c r="D156" s="11">
-        <v>2</v>
-      </c>
-      <c r="E156" s="31">
+      <c r="B156" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="32" t="s">
+        <v>358</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="102"/>
@@ -5532,16 +5614,16 @@
         <v>6</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="102"/>
@@ -5551,16 +5633,16 @@
         <v>6</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="102"/>
@@ -5570,16 +5652,16 @@
         <v>6</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>377</v>
+        <v>180</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>357</v>
+        <v>180</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="102"/>
@@ -5589,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E160" s="32" t="s">
-        <v>180</v>
+        <v>363</v>
+      </c>
+      <c r="C160" s="7">
+        <v>1</v>
+      </c>
+      <c r="D160" s="7">
+        <v>3</v>
+      </c>
+      <c r="E160" s="32">
+        <v>4</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="102"/>
@@ -5608,16 +5690,16 @@
         <v>6</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C161" s="7">
-        <v>1</v>
-      </c>
-      <c r="D161" s="7">
-        <v>3</v>
-      </c>
-      <c r="E161" s="32">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E161" s="32" t="s">
+        <v>340</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="102"/>
@@ -5627,16 +5709,16 @@
         <v>6</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="102"/>
@@ -5646,16 +5728,16 @@
         <v>6</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>389</v>
+        <v>143</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="102"/>
@@ -5665,16 +5747,16 @@
         <v>6</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>382</v>
+        <v>237</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="102"/>
@@ -5684,16 +5766,16 @@
         <v>6</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="102"/>
@@ -5703,7 +5785,7 @@
         <v>6</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>97</v>
@@ -5722,16 +5804,16 @@
         <v>6</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="102"/>
@@ -5741,16 +5823,16 @@
         <v>6</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E168" s="32" t="s">
-        <v>101</v>
+        <v>123</v>
+      </c>
+      <c r="C168" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" s="32" t="b">
+        <v>0</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="102"/>
@@ -5760,13 +5842,13 @@
         <v>6</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C169" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="D169" s="7" t="b">
-        <v>1</v>
       </c>
       <c r="E169" s="32" t="b">
         <v>0</v>
@@ -5779,16 +5861,16 @@
         <v>6</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C170" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D170" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E170" s="32" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C170" s="7">
+        <v>69</v>
+      </c>
+      <c r="D170" s="7">
+        <v>69</v>
+      </c>
+      <c r="E170" s="32">
+        <v>69</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="102"/>
@@ -5798,16 +5880,16 @@
         <v>6</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C171" s="7">
-        <v>69</v>
-      </c>
-      <c r="D171" s="7">
-        <v>69</v>
-      </c>
-      <c r="E171" s="32">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>367</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="102"/>
@@ -5817,16 +5899,16 @@
         <v>6</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="102"/>
@@ -5836,16 +5918,16 @@
         <v>6</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="102"/>
@@ -5855,16 +5937,16 @@
         <v>6</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E174" s="32" t="s">
-        <v>362</v>
+        <v>99</v>
+      </c>
+      <c r="C174" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="102"/>
@@ -5874,16 +5956,16 @@
         <v>6</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C175" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D175" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E175" s="32" t="b">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="102"/>
@@ -5893,16 +5975,16 @@
         <v>6</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="102"/>
@@ -5912,107 +5994,102 @@
         <v>6</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="102"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="77">
-        <v>6</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E178" s="32" t="s">
-        <v>153</v>
-      </c>
+    <row r="178" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B178" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="127"/>
       <c r="F178" s="6"/>
       <c r="G178" s="102"/>
     </row>
-    <row r="179" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="B179" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="C179" s="51"/>
-      <c r="D179" s="51"/>
-      <c r="E179" s="127"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="102"/>
-    </row>
-    <row r="182" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="119" t="s">
+    <row r="181" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="119" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="22" t="s">
+    <row r="182" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="B183" s="95" t="s">
+      <c r="B182" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="C183" s="96"/>
-      <c r="D183" s="30" t="s">
+      <c r="C182" s="96"/>
+      <c r="D182" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="E183" s="129" t="s">
+      <c r="E182" s="129" t="s">
         <v>546</v>
       </c>
-      <c r="F183" s="129" t="s">
+      <c r="F182" s="129" t="s">
         <v>545</v>
       </c>
     </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="135"/>
+      <c r="B183" s="148"/>
+      <c r="C183" s="149"/>
+      <c r="D183" s="137"/>
+      <c r="E183" s="129"/>
+      <c r="F183" s="129"/>
+    </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="137"/>
-      <c r="B184" s="151"/>
-      <c r="C184" s="152"/>
-      <c r="D184" s="139"/>
-      <c r="E184" s="129"/>
-      <c r="F184" s="129"/>
+      <c r="A184" s="7">
+        <v>7</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="49"/>
+      <c r="D184" s="7">
+        <v>1</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="102"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C185" s="49"/>
-      <c r="D185" s="7">
-        <v>1</v>
+      <c r="D185" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="102"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
+      <c r="A186" s="24">
         <v>7</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="49"/>
-      <c r="D186" s="7" t="s">
-        <v>173</v>
+      <c r="B186" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C186" s="45"/>
+      <c r="D186" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="102"/>
@@ -6022,11 +6099,11 @@
         <v>7</v>
       </c>
       <c r="B187" s="99" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C187" s="45"/>
-      <c r="D187" s="32" t="s">
-        <v>209</v>
+      <c r="D187" s="32">
+        <v>1</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="102"/>
@@ -6036,11 +6113,11 @@
         <v>7</v>
       </c>
       <c r="B188" s="99" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C188" s="45"/>
-      <c r="D188" s="32">
-        <v>1</v>
+      <c r="D188" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="102"/>
@@ -6050,11 +6127,11 @@
         <v>7</v>
       </c>
       <c r="B189" s="99" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="C189" s="45"/>
       <c r="D189" s="32" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="102"/>
@@ -6064,11 +6141,11 @@
         <v>7</v>
       </c>
       <c r="B190" s="99" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="C190" s="45"/>
       <c r="D190" s="32" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="102"/>
@@ -6078,11 +6155,11 @@
         <v>7</v>
       </c>
       <c r="B191" s="99" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C191" s="45"/>
       <c r="D191" s="32" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="102"/>
@@ -6092,11 +6169,11 @@
         <v>7</v>
       </c>
       <c r="B192" s="99" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="C192" s="45"/>
       <c r="D192" s="32" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="102"/>
@@ -6106,97 +6183,99 @@
         <v>7</v>
       </c>
       <c r="B193" s="99" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C193" s="45"/>
       <c r="D193" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="102"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="24">
+    <row r="194" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="25">
         <v>7</v>
       </c>
-      <c r="B194" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C194" s="45"/>
-      <c r="D194" s="32" t="s">
-        <v>101</v>
+      <c r="B194" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="54"/>
+      <c r="D194" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="102"/>
     </row>
-    <row r="195" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="25">
-        <v>7</v>
-      </c>
-      <c r="B195" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195" s="54"/>
-      <c r="D195" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E195" s="6"/>
-      <c r="F195" s="102"/>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="119" t="s">
+        <v>538</v>
+      </c>
       <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="119" t="s">
-        <v>538</v>
-      </c>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="22" t="s">
+    </row>
+    <row r="198" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="B199" s="88" t="s">
+      <c r="B198" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C198" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D199" s="30" t="s">
+      <c r="D198" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="E199" s="129" t="s">
+      <c r="E198" s="129" t="s">
         <v>546</v>
       </c>
-      <c r="F199" s="129" t="s">
+      <c r="F198" s="129" t="s">
         <v>545</v>
       </c>
     </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="135"/>
+      <c r="B199" s="150"/>
+      <c r="C199" s="151"/>
+      <c r="D199" s="137"/>
+      <c r="E199" s="129"/>
+      <c r="F199" s="129"/>
+    </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="137"/>
-      <c r="B200" s="153"/>
-      <c r="C200" s="154"/>
-      <c r="D200" s="139"/>
-      <c r="E200" s="129"/>
-      <c r="F200" s="129"/>
+      <c r="A200" s="7">
+        <v>7</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="7">
+        <v>2</v>
+      </c>
+      <c r="D200" s="7">
+        <v>1</v>
+      </c>
+      <c r="E200" s="6"/>
+      <c r="F200" s="102"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>7</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="7">
-        <v>2</v>
-      </c>
-      <c r="D201" s="7">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="102"/>
@@ -6206,29 +6285,29 @@
         <v>7</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="102"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
+      <c r="A203" s="24">
         <v>7</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
+      </c>
+      <c r="D203" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="102"/>
@@ -6238,13 +6317,13 @@
         <v>7</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D204" s="32" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="102"/>
@@ -6254,13 +6333,13 @@
         <v>7</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D205" s="32" t="s">
-        <v>180</v>
+        <v>192</v>
+      </c>
+      <c r="C205" s="7">
+        <v>1</v>
+      </c>
+      <c r="D205" s="32">
+        <v>1</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="102"/>
@@ -6270,13 +6349,13 @@
         <v>7</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C206" s="7">
-        <v>1</v>
-      </c>
-      <c r="D206" s="32">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D206" s="32" t="s">
+        <v>173</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="102"/>
@@ -6286,13 +6365,13 @@
         <v>7</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D207" s="32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="102"/>
@@ -6302,13 +6381,13 @@
         <v>7</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="102"/>
@@ -6318,13 +6397,13 @@
         <v>7</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D209" s="32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="102"/>
@@ -6334,13 +6413,13 @@
         <v>7</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="102"/>
@@ -6350,13 +6429,13 @@
         <v>7</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D211" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="102"/>
@@ -6366,13 +6445,13 @@
         <v>7</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="D212" s="32" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="102"/>
@@ -6382,13 +6461,13 @@
         <v>7</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D213" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="102"/>
@@ -6398,13 +6477,13 @@
         <v>7</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D214" s="32" t="s">
-        <v>201</v>
+        <v>99</v>
+      </c>
+      <c r="C214" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D214" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="102"/>
@@ -6414,13 +6493,13 @@
         <v>7</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C215" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D215" s="32" t="b">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D215" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="102"/>
@@ -6430,103 +6509,103 @@
         <v>7</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D216" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="102"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="24">
+    <row r="217" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="25">
         <v>7</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D217" s="32" t="s">
-        <v>151</v>
+      <c r="B217" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="102"/>
     </row>
-    <row r="218" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="25">
-        <v>7</v>
-      </c>
-      <c r="B218" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D218" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E218" s="6"/>
-      <c r="F218" s="102"/>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-    </row>
-    <row r="221" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="121" t="s">
+    <row r="220" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="121" t="s">
         <v>539</v>
       </c>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="22" t="s">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="B222" s="80" t="s">
+      <c r="B221" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="C222" s="38" t="s">
+      <c r="C221" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D222" s="30" t="s">
+      <c r="D221" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="E222" s="129" t="s">
+      <c r="E221" s="129" t="s">
         <v>546</v>
       </c>
-      <c r="F222" s="129" t="s">
+      <c r="F221" s="129" t="s">
         <v>545</v>
       </c>
     </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="135"/>
+      <c r="B222" s="152"/>
+      <c r="C222" s="153"/>
+      <c r="D222" s="137"/>
+      <c r="E222" s="129"/>
+      <c r="F222" s="129"/>
+    </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="137"/>
-      <c r="B223" s="155"/>
-      <c r="C223" s="156"/>
-      <c r="D223" s="139"/>
-      <c r="E223" s="129"/>
-      <c r="F223" s="129"/>
+      <c r="A223" s="7">
+        <v>7</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="7">
+        <v>2</v>
+      </c>
+      <c r="D223" s="7">
+        <v>1</v>
+      </c>
+      <c r="E223" s="6"/>
+      <c r="F223" s="102"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>7</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C224" s="7">
-        <v>2</v>
-      </c>
-      <c r="D224" s="7">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="102"/>
@@ -6536,29 +6615,29 @@
         <v>7</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="102"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="7">
+      <c r="A226" s="24">
         <v>7</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>411</v>
+        <v>4</v>
+      </c>
+      <c r="C226" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D226" s="32" t="s">
+        <v>402</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="102"/>
@@ -6568,13 +6647,13 @@
         <v>7</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="102"/>
@@ -6584,13 +6663,13 @@
         <v>7</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C228" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D228" s="32" t="s">
-        <v>180</v>
+        <v>192</v>
+      </c>
+      <c r="C228" s="35">
+        <v>1</v>
+      </c>
+      <c r="D228" s="32">
+        <v>1</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="102"/>
@@ -6600,13 +6679,13 @@
         <v>7</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C229" s="35">
-        <v>1</v>
-      </c>
-      <c r="D229" s="32">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C229" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D229" s="32" t="s">
+        <v>173</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="102"/>
@@ -6616,13 +6695,13 @@
         <v>7</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D230" s="32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="102"/>
@@ -6632,13 +6711,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C231" s="35" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="102"/>
@@ -6648,13 +6727,13 @@
         <v>7</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="102"/>
@@ -6664,13 +6743,13 @@
         <v>7</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C233" s="35" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="102"/>
@@ -6680,13 +6759,13 @@
         <v>7</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C234" s="35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="102"/>
@@ -6696,13 +6775,13 @@
         <v>7</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C235" s="35" t="s">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="D235" s="32" t="s">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="102"/>
@@ -6712,13 +6791,13 @@
         <v>7</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="D236" s="32" t="s">
-        <v>412</v>
+        <v>203</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="102"/>
@@ -6728,13 +6807,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C237" s="35" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="D237" s="32" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="102"/>
@@ -6744,13 +6823,13 @@
         <v>7</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C238" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="D238" s="32" t="s">
-        <v>407</v>
+        <v>99</v>
+      </c>
+      <c r="C238" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="102"/>
@@ -6760,13 +6839,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C239" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D239" s="32" t="b">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D239" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="102"/>
@@ -6776,77 +6855,62 @@
         <v>7</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D240" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="102"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="24">
+    <row r="241" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="25">
         <v>7</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C241" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D241" s="32" t="s">
-        <v>151</v>
+      <c r="B241" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C241" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="D241" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="102"/>
     </row>
     <row r="242" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="25">
-        <v>7</v>
-      </c>
-      <c r="B242" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C242" s="90" t="s">
+      <c r="A242" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B242" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="C242" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="D242" s="33" t="s">
+      <c r="D242" s="128" t="s">
         <v>216</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="102"/>
     </row>
-    <row r="243" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="B243" s="92" t="s">
-        <v>364</v>
-      </c>
-      <c r="C243" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="D243" s="128" t="s">
-        <v>216</v>
-      </c>
-      <c r="E243" s="6"/>
-      <c r="F243" s="102"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B70" r:id="rId1" xr:uid="{B5748602-5E13-0147-9F5A-A08149BDDF69}"/>
-    <hyperlink ref="B86" r:id="rId2" xr:uid="{C121C389-843B-EA4C-B006-F3ADD6BE21FF}"/>
-    <hyperlink ref="B113" r:id="rId3" xr:uid="{70D029A9-F7A3-F044-9940-8CE7FA9B9480}"/>
-    <hyperlink ref="B140" r:id="rId4" xr:uid="{60172AF6-E364-4A41-A1E9-6763660565E0}"/>
-    <hyperlink ref="B154" r:id="rId5" xr:uid="{621B116D-6BFF-4644-BF2E-0B4929356029}"/>
-    <hyperlink ref="B183" r:id="rId6" xr:uid="{7B8E68E0-AF15-874E-898D-90C406277C33}"/>
-    <hyperlink ref="B222" r:id="rId7" xr:uid="{459265E8-8F83-F14F-B193-4AFADC1C7880}"/>
-    <hyperlink ref="B199" r:id="rId8" xr:uid="{D7994BC9-8F6B-7448-8D99-595D8716E529}"/>
+    <hyperlink ref="B69" r:id="rId1" xr:uid="{B5748602-5E13-0147-9F5A-A08149BDDF69}"/>
+    <hyperlink ref="B85" r:id="rId2" xr:uid="{C121C389-843B-EA4C-B006-F3ADD6BE21FF}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{70D029A9-F7A3-F044-9940-8CE7FA9B9480}"/>
+    <hyperlink ref="B139" r:id="rId4" xr:uid="{60172AF6-E364-4A41-A1E9-6763660565E0}"/>
+    <hyperlink ref="B153" r:id="rId5" xr:uid="{621B116D-6BFF-4644-BF2E-0B4929356029}"/>
+    <hyperlink ref="B182" r:id="rId6" xr:uid="{7B8E68E0-AF15-874E-898D-90C406277C33}"/>
+    <hyperlink ref="B221" r:id="rId7" xr:uid="{459265E8-8F83-F14F-B193-4AFADC1C7880}"/>
+    <hyperlink ref="B198" r:id="rId8" xr:uid="{D7994BC9-8F6B-7448-8D99-595D8716E529}"/>
     <hyperlink ref="B3" r:id="rId9" xr:uid="{82BD7D3C-D7B1-EA47-B275-B8FC031B6193}"/>
     <hyperlink ref="B6" r:id="rId10" xr:uid="{8587C91F-162B-3F4A-95CE-48AFDC1E31B6}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{F241784D-A0C4-AA41-A90A-CEC1D654DD50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6856,7 +6920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404E823-2589-7549-BEC2-645D066E8C31}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
@@ -15805,140 +15869,140 @@
         <v>.external_hotfix_version</v>
       </c>
     </row>
-    <row r="16" spans="2:52" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="157" t="s">
+    <row r="16" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
         <v>549</v>
       </c>
-      <c r="F16" s="157" t="s">
+      <c r="F16" t="s">
         <v>259</v>
       </c>
-      <c r="G16" s="157" t="s">
+      <c r="G16" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="157" t="s">
+      <c r="H16" t="s">
         <v>262</v>
       </c>
-      <c r="I16" s="157" t="s">
+      <c r="I16" t="s">
         <v>269</v>
       </c>
-      <c r="J16" s="157" t="s">
+      <c r="J16" t="s">
         <v>258</v>
       </c>
-      <c r="K16" s="157" t="s">
+      <c r="K16" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="157" t="s">
+      <c r="L16" t="s">
         <v>279</v>
       </c>
-      <c r="M16" s="157" t="s">
+      <c r="M16" t="s">
         <v>281</v>
       </c>
-      <c r="O16" s="157" t="s">
+      <c r="O16" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="157" t="s">
+      <c r="P16" t="s">
         <v>267</v>
       </c>
-      <c r="Q16" s="157" t="s">
+      <c r="Q16" t="s">
         <v>251</v>
       </c>
-      <c r="R16" s="157" t="s">
+      <c r="R16" t="s">
         <v>249</v>
       </c>
-      <c r="S16" s="157" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="T16" s="157" t="s">
+      <c r="T16" t="s">
         <v>295</v>
       </c>
-      <c r="U16" s="157" t="s">
+      <c r="U16" t="s">
         <v>293</v>
       </c>
-      <c r="V16" s="157" t="s">
+      <c r="V16" t="s">
         <v>265</v>
       </c>
-      <c r="W16" s="157" t="s">
+      <c r="W16" t="s">
         <v>297</v>
       </c>
-      <c r="X16" s="157" t="s">
+      <c r="X16" t="s">
         <v>296</v>
       </c>
-      <c r="Y16" s="157" t="s">
+      <c r="Y16" t="s">
         <v>266</v>
       </c>
-      <c r="AA16" s="157" t="s">
+      <c r="AA16" t="s">
         <v>257</v>
       </c>
-      <c r="AB16" s="157" t="s">
+      <c r="AB16" t="s">
         <v>256</v>
       </c>
-      <c r="AC16" s="157" t="s">
+      <c r="AC16" t="s">
         <v>244</v>
       </c>
-      <c r="AD16" s="157" t="s">
+      <c r="AD16" t="s">
         <v>246</v>
       </c>
-      <c r="AE16" s="157" t="s">
+      <c r="AE16" t="s">
         <v>247</v>
       </c>
-      <c r="AF16" s="157" t="s">
+      <c r="AF16" t="s">
         <v>263</v>
       </c>
-      <c r="AG16" s="157" t="s">
+      <c r="AG16" t="s">
         <v>254</v>
       </c>
-      <c r="AH16" s="157" t="s">
+      <c r="AH16" t="s">
         <v>248</v>
       </c>
-      <c r="AI16" s="157" t="s">
+      <c r="AI16" t="s">
         <v>253</v>
       </c>
-      <c r="AJ16" s="157" t="s">
+      <c r="AJ16" t="s">
         <v>264</v>
       </c>
-      <c r="AK16" s="157" t="s">
+      <c r="AK16" t="s">
         <v>255</v>
       </c>
-      <c r="AM16" s="157" t="s">
+      <c r="AM16" t="s">
         <v>239</v>
       </c>
-      <c r="AN16" s="157" t="s">
+      <c r="AN16" t="s">
         <v>252</v>
       </c>
-      <c r="AO16" s="157" t="s">
+      <c r="AO16" t="s">
         <v>240</v>
       </c>
-      <c r="AP16" s="157" t="s">
+      <c r="AP16" t="s">
         <v>286</v>
       </c>
-      <c r="AQ16" s="157" t="s">
+      <c r="AQ16" t="s">
         <v>282</v>
       </c>
-      <c r="AR16" s="157" t="s">
+      <c r="AR16" t="s">
         <v>283</v>
       </c>
-      <c r="AS16" s="157" t="s">
+      <c r="AS16" t="s">
         <v>287</v>
       </c>
-      <c r="AT16" s="157" t="s">
+      <c r="AT16" t="s">
         <v>284</v>
       </c>
-      <c r="AU16" s="157" t="s">
+      <c r="AU16" t="s">
         <v>285</v>
       </c>
-      <c r="AV16" s="158" t="s">
+      <c r="AV16" s="154" t="s">
         <v>288</v>
       </c>
-      <c r="AW16" s="158" t="s">
+      <c r="AW16" s="154" t="s">
         <v>289</v>
       </c>
-      <c r="AX16" s="158" t="s">
+      <c r="AX16" s="154" t="s">
         <v>290</v>
       </c>
-      <c r="AY16" s="158" t="s">
+      <c r="AY16" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="AZ16" s="158" t="s">
+      <c r="AZ16" s="154" t="s">
         <v>292</v>
       </c>
     </row>
@@ -15992,7 +16056,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
+      <c r="B27" s="139"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
@@ -16050,7 +16114,7 @@
       </c>
     </row>
     <row r="39" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="133"/>
+      <c r="B39" s="132"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
@@ -16108,7 +16172,7 @@
       </c>
     </row>
     <row r="51" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="133"/>
+      <c r="B51" s="132"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
